--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.622006266477911</v>
+        <v>3.73491162379014</v>
       </c>
       <c r="C2">
-        <v>1.201025939921692</v>
+        <v>0.477323402332587</v>
       </c>
       <c r="D2">
-        <v>0.01106327762628467</v>
+        <v>0.05981235894287451</v>
       </c>
       <c r="E2">
-        <v>0.1123712106206938</v>
+        <v>0.02490988152004014</v>
       </c>
       <c r="F2">
-        <v>2.629167589886833</v>
+        <v>2.407261528287734</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.28460196875119</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09790625943460896</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8820350459342734</v>
       </c>
       <c r="L2">
-        <v>0.368660769068974</v>
+        <v>0.3350620164847271</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.404093097582148</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.119077438881959</v>
+        <v>3.245952103394018</v>
       </c>
       <c r="C3">
-        <v>1.031611871863305</v>
+        <v>0.4118365867780938</v>
       </c>
       <c r="D3">
-        <v>0.01146462547979255</v>
+        <v>0.06104086651484053</v>
       </c>
       <c r="E3">
-        <v>0.09721789507784706</v>
+        <v>0.02428920330356377</v>
       </c>
       <c r="F3">
-        <v>2.329795302649643</v>
+        <v>2.179851727291378</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.162908883177963</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08535994294868487</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7624357553666812</v>
       </c>
       <c r="L3">
-        <v>0.3170057657316292</v>
+        <v>0.2939956006618729</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.419485945766965</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.815393998084289</v>
+        <v>2.951874105924617</v>
       </c>
       <c r="C4">
-        <v>0.9295845995388845</v>
+        <v>0.3722306375657922</v>
       </c>
       <c r="D4">
-        <v>0.01176438494006327</v>
+        <v>0.06189883484280045</v>
       </c>
       <c r="E4">
-        <v>0.08815265669759142</v>
+        <v>0.02394127090722353</v>
       </c>
       <c r="F4">
-        <v>2.153074308725294</v>
+        <v>2.045430634872673</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.091906467920708</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07791263153639605</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6904081514062597</v>
       </c>
       <c r="L4">
-        <v>0.2859927836154128</v>
+        <v>0.2693774522755206</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.431103448799291</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.692720884486278</v>
+        <v>2.833382486765458</v>
       </c>
       <c r="C5">
-        <v>0.8884274821921849</v>
+        <v>0.3562162702005196</v>
       </c>
       <c r="D5">
-        <v>0.01189847911033048</v>
+        <v>0.0622727241676273</v>
       </c>
       <c r="E5">
-        <v>0.08451031500582928</v>
+        <v>0.0238073489881101</v>
       </c>
       <c r="F5">
-        <v>2.082628620114207</v>
+        <v>1.991827348894958</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.063802033637003</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07493379510347964</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6613619429106521</v>
       </c>
       <c r="L5">
-        <v>0.2735052407573662</v>
+        <v>0.2594777403658668</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.43634665489023</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.672410729024193</v>
+        <v>2.813782986359968</v>
       </c>
       <c r="C6">
-        <v>0.8816165091026278</v>
+        <v>0.3535639460222342</v>
       </c>
       <c r="D6">
-        <v>0.01192142670327812</v>
+        <v>0.0623362242102985</v>
       </c>
       <c r="E6">
-        <v>0.08390841060540666</v>
+        <v>0.02378557311577278</v>
       </c>
       <c r="F6">
-        <v>2.071020098420519</v>
+        <v>1.982993759799825</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.059182542904892</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07444231431279746</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6565559754701482</v>
       </c>
       <c r="L6">
-        <v>0.2714400638019612</v>
+        <v>0.257841408825854</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.437247042885176</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.813735468464131</v>
+        <v>2.950270878788899</v>
       </c>
       <c r="C7">
-        <v>0.929027941919685</v>
+        <v>0.37201418756149</v>
       </c>
       <c r="D7">
-        <v>0.01176614685643429</v>
+        <v>0.06190378126619933</v>
       </c>
       <c r="E7">
-        <v>0.08810333532085934</v>
+        <v>0.02393943355119355</v>
       </c>
       <c r="F7">
-        <v>2.15211816635923</v>
+        <v>2.044703137496413</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.091524213995456</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07787224164539452</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6900152470999998</v>
       </c>
       <c r="L7">
-        <v>0.2858237957636902</v>
+        <v>0.2692434275237616</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.431172144533221</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.44740309023166</v>
+        <v>3.564918119167714</v>
       </c>
       <c r="C8">
-        <v>1.142146294245379</v>
+        <v>0.4546017110408798</v>
       </c>
       <c r="D8">
-        <v>0.0111896522415158</v>
+        <v>0.06021328574727391</v>
       </c>
       <c r="E8">
-        <v>0.1070914931023417</v>
+        <v>0.02468868769033961</v>
       </c>
       <c r="F8">
-        <v>2.524335279511632</v>
+        <v>2.327683838758745</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.241803813504319</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09352176916142341</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8404748120674839</v>
       </c>
       <c r="L8">
-        <v>0.3506873525205521</v>
+        <v>0.3207672885923785</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.408928385153828</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.741271684540777</v>
+        <v>4.828999647081957</v>
       </c>
       <c r="C9">
-        <v>1.580100778381222</v>
+        <v>0.6226780059547252</v>
       </c>
       <c r="D9">
-        <v>0.01055919399840732</v>
+        <v>0.05781336304579554</v>
       </c>
       <c r="E9">
-        <v>0.1466488830545103</v>
+        <v>0.02644508717764715</v>
       </c>
       <c r="F9">
-        <v>3.321552933637065</v>
+        <v>2.930789159388411</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.571391863716073</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1266763018919832</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.149125380297079</v>
       </c>
       <c r="L9">
-        <v>0.4848257400782501</v>
+        <v>0.4274341205529737</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.384299048979813</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.740431487223702</v>
+        <v>5.809400620321355</v>
       </c>
       <c r="C10">
-        <v>1.920941575469783</v>
+        <v>0.7520253776102379</v>
       </c>
       <c r="D10">
-        <v>0.01052838427625602</v>
+        <v>0.05675775920916948</v>
       </c>
       <c r="E10">
-        <v>0.1778177340954556</v>
+        <v>0.02794823289078074</v>
       </c>
       <c r="F10">
-        <v>3.966118606866416</v>
+        <v>3.414107853758537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.843533723961414</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1532421192251938</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.388049871794763</v>
       </c>
       <c r="L10">
-        <v>0.5898203166519309</v>
+        <v>0.5106477825596016</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.380636598729112</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.210237284470168</v>
+        <v>6.270801314860989</v>
       </c>
       <c r="C11">
-        <v>2.082021717047269</v>
+        <v>0.8127056264407884</v>
       </c>
       <c r="D11">
-        <v>0.01064425179933082</v>
+        <v>0.05647186549044392</v>
       </c>
       <c r="E11">
-        <v>0.1926427746992516</v>
+        <v>0.02868805568543031</v>
       </c>
       <c r="F11">
-        <v>4.276977421442268</v>
+        <v>3.645568179016976</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.976224503560644</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1659993101893171</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.500401320957295</v>
       </c>
       <c r="L11">
-        <v>0.6395883125041948</v>
+        <v>0.5499269900772532</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.382859496296263</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.390816572322535</v>
+        <v>6.448146364835225</v>
       </c>
       <c r="C12">
-        <v>2.144077404786856</v>
+        <v>0.8360038147939122</v>
       </c>
       <c r="D12">
-        <v>0.010710585369619</v>
+        <v>0.05639566845464827</v>
       </c>
       <c r="E12">
-        <v>0.1983686609355217</v>
+        <v>0.02897721944367859</v>
       </c>
       <c r="F12">
-        <v>4.397721210955439</v>
+        <v>3.735164002657598</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.027990895067148</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1709464115106627</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.543572603416678</v>
       </c>
       <c r="L12">
-        <v>0.6587839955970551</v>
+        <v>0.565042194816229</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.384335287280038</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.351798146113197</v>
+        <v>6.409828161980954</v>
       </c>
       <c r="C13">
-        <v>2.130662116626922</v>
+        <v>0.8309709305763988</v>
       </c>
       <c r="D13">
-        <v>0.01069523181948284</v>
+        <v>0.05641057941934235</v>
       </c>
       <c r="E13">
-        <v>0.1971301685659341</v>
+        <v>0.02891452557203955</v>
       </c>
       <c r="F13">
-        <v>4.371573404973702</v>
+        <v>3.715776451328026</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.016770203788482</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1698754449631537</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.534245298234481</v>
       </c>
       <c r="L13">
-        <v>0.654633215649973</v>
+        <v>0.5617755124256831</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.383987935529689</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.225037023122695</v>
+        <v>6.28533649127661</v>
       </c>
       <c r="C14">
-        <v>2.087104648578986</v>
+        <v>0.8146156231841246</v>
       </c>
       <c r="D14">
-        <v>0.01064923458679701</v>
+        <v>0.05646492792963898</v>
       </c>
       <c r="E14">
-        <v>0.1931114814211909</v>
+        <v>0.02871165887719407</v>
       </c>
       <c r="F14">
-        <v>4.286847261785113</v>
+        <v>3.652898513820844</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.980451373383275</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.166403856870101</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.503939874629225</v>
       </c>
       <c r="L14">
-        <v>0.6411601550523045</v>
+        <v>0.5511654705645839</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.382967734116377</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.147756012103855</v>
+        <v>6.209436391630334</v>
       </c>
       <c r="C15">
-        <v>2.060568511636632</v>
+        <v>0.804640975181627</v>
       </c>
       <c r="D15">
-        <v>0.01062410994504503</v>
+        <v>0.0565025281886804</v>
       </c>
       <c r="E15">
-        <v>0.190665124513032</v>
+        <v>0.02858860092897508</v>
       </c>
       <c r="F15">
-        <v>4.2353605177573</v>
+        <v>3.61464650006377</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.958410775038899</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1642931870465425</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.485461686956896</v>
       </c>
       <c r="L15">
-        <v>0.6329550555353833</v>
+        <v>0.5446990648818399</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.382427815711395</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.710074936739034</v>
+        <v>5.77959051677999</v>
       </c>
       <c r="C16">
-        <v>1.910551502546184</v>
+        <v>0.7481013393912406</v>
       </c>
       <c r="D16">
-        <v>0.01052373171130583</v>
+        <v>0.05678068983682039</v>
       </c>
       <c r="E16">
-        <v>0.1768634379113649</v>
+        <v>0.02790108960979687</v>
       </c>
       <c r="F16">
-        <v>3.946198316319879</v>
+        <v>3.399237668687448</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.835060613527858</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1524235275808969</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.380789326320453</v>
       </c>
       <c r="L16">
-        <v>0.586613205105472</v>
+        <v>0.5081124360058311</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.380575723538627</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.445799523982885</v>
+        <v>5.520112173821076</v>
       </c>
       <c r="C17">
-        <v>1.820190802323907</v>
+        <v>0.7139240630872337</v>
       </c>
       <c r="D17">
-        <v>0.01049787880574726</v>
+        <v>0.05700382178371655</v>
       </c>
       <c r="E17">
-        <v>0.1685745801311569</v>
+        <v>0.02749431164511762</v>
       </c>
       <c r="F17">
-        <v>3.773648626180403</v>
+        <v>3.270247521684837</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.761825062438561</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1453269111193265</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.31758077395682</v>
       </c>
       <c r="L17">
-        <v>0.558737878488941</v>
+        <v>0.4860567700921905</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.380485365185521</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.295200848944319</v>
+        <v>5.372290118252295</v>
       </c>
       <c r="C18">
-        <v>1.768772033528592</v>
+        <v>0.694435567474045</v>
       </c>
       <c r="D18">
-        <v>0.01049496827300089</v>
+        <v>0.05715016629813618</v>
       </c>
       <c r="E18">
-        <v>0.1638665515102531</v>
+        <v>0.02726555377068784</v>
       </c>
       <c r="F18">
-        <v>3.67602923573736</v>
+        <v>3.197128342798152</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.720522234582077</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1413070463978165</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.281562964630922</v>
       </c>
       <c r="L18">
-        <v>0.5428892464667641</v>
+        <v>0.4735026052589433</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.380794355684444</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.24443894444687</v>
+        <v>5.322473080296731</v>
       </c>
       <c r="C19">
-        <v>1.751452450205363</v>
+        <v>0.6878646339017109</v>
       </c>
       <c r="D19">
-        <v>0.01049593364414392</v>
+        <v>0.05720269376506693</v>
       </c>
       <c r="E19">
-        <v>0.1622821865256654</v>
+        <v>0.02718896824208805</v>
       </c>
       <c r="F19">
-        <v>3.643242762822069</v>
+        <v>3.172547800629133</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.70667203817365</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1399560838236802</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.269423223159393</v>
       </c>
       <c r="L19">
-        <v>0.5375531699062748</v>
+        <v>0.4692735782068098</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.380958869893774</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.473783437469422</v>
+        <v>5.547584052839909</v>
       </c>
       <c r="C20">
-        <v>1.829751208241248</v>
+        <v>0.7175443888580446</v>
       </c>
       <c r="D20">
-        <v>0.01049936814849772</v>
+        <v>0.05697817788487924</v>
       </c>
       <c r="E20">
-        <v>0.169450657477789</v>
+        <v>0.02753706816127632</v>
       </c>
       <c r="F20">
-        <v>3.791845199595429</v>
+        <v>3.283865845966545</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.769534602269246</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1460758187981526</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.324273768721042</v>
       </c>
       <c r="L20">
-        <v>0.5616857484028799</v>
+        <v>0.4883907608580671</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.380457119443534</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.262193039470446</v>
+        <v>6.321827991948737</v>
       </c>
       <c r="C21">
-        <v>2.099868116570065</v>
+        <v>0.8194104071905599</v>
       </c>
       <c r="D21">
-        <v>0.01066210159432046</v>
+        <v>0.0564480578213491</v>
       </c>
       <c r="E21">
-        <v>0.1942886595486684</v>
+        <v>0.0287709929879405</v>
       </c>
       <c r="F21">
-        <v>4.311646837584192</v>
+        <v>3.671312016277142</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.991075726981634</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.167420218176737</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.512823449280347</v>
       </c>
       <c r="L21">
-        <v>0.6451074868871416</v>
+        <v>0.5542750411876938</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.383249531255657</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.793337947724297</v>
+        <v>6.843362822417134</v>
       </c>
       <c r="C22">
-        <v>2.282688656373978</v>
+        <v>0.8878826053566797</v>
       </c>
       <c r="D22">
-        <v>0.01090171324124967</v>
+        <v>0.05629094816932678</v>
       </c>
       <c r="E22">
-        <v>0.211185845185824</v>
+        <v>0.02963048916423539</v>
       </c>
       <c r="F22">
-        <v>4.6693150469481</v>
+        <v>3.936039696789095</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.14486635860672</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1820593454419388</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.639759265246497</v>
       </c>
       <c r="L22">
-        <v>0.7017033452418602</v>
+        <v>0.5987599223332722</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.388813592789376</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.508222507615869</v>
+        <v>6.563438774489271</v>
       </c>
       <c r="C23">
-        <v>2.184466145358613</v>
+        <v>0.8511434983150536</v>
       </c>
       <c r="D23">
-        <v>0.0107601715617065</v>
+        <v>0.05635591857811306</v>
       </c>
       <c r="E23">
-        <v>0.2020994946475057</v>
+        <v>0.02916655437975813</v>
       </c>
       <c r="F23">
-        <v>4.476591882172869</v>
+        <v>3.793592744523636</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.061870416367427</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1741756458166712</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.571635047311005</v>
       </c>
       <c r="L23">
-        <v>0.6712839091152603</v>
+        <v>0.5748736627266879</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.385473988849853</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.461127781184018</v>
+        <v>5.535159824160189</v>
       </c>
       <c r="C24">
-        <v>1.825427309316183</v>
+        <v>0.7159071437972671</v>
       </c>
       <c r="D24">
-        <v>0.01049865786225013</v>
+        <v>0.05698971553216836</v>
       </c>
       <c r="E24">
-        <v>0.1690544056768601</v>
+        <v>0.02751772211186676</v>
       </c>
       <c r="F24">
-        <v>3.783613637932945</v>
+        <v>3.277705785938252</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.766046641135532</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.145737051942632</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.321246871295997</v>
       </c>
       <c r="L24">
-        <v>0.5603524687380528</v>
+        <v>0.4873351740419594</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.380468770610534</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.384126051831913</v>
+        <v>4.479223993933033</v>
       </c>
       <c r="C25">
-        <v>1.458831743153439</v>
+        <v>0.5763503249708037</v>
       </c>
       <c r="D25">
-        <v>0.01066435566684909</v>
+        <v>0.05835050526463448</v>
       </c>
       <c r="E25">
-        <v>0.13563383260637</v>
+        <v>0.02593557776085831</v>
       </c>
       <c r="F25">
-        <v>3.096996674921684</v>
+        <v>2.761437823274804</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.477670521473797</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.117376791947482</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.063801354591945</v>
       </c>
       <c r="L25">
-        <v>0.4475861669480921</v>
+        <v>0.3978399061126225</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.388656398478318</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.73491162379014</v>
+        <v>3.449608982848758</v>
       </c>
       <c r="C2">
-        <v>0.477323402332587</v>
+        <v>0.4864929202750261</v>
       </c>
       <c r="D2">
-        <v>0.05981235894287451</v>
+        <v>0.3639435445687411</v>
       </c>
       <c r="E2">
-        <v>0.02490988152004014</v>
+        <v>0.03588084626944443</v>
       </c>
       <c r="F2">
-        <v>2.407261528287734</v>
+        <v>6.609572557456033</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8820350459342734</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3350620164847271</v>
+        <v>0.3255791882688044</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.404093097582148</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.245952103394018</v>
+        <v>2.972180362048448</v>
       </c>
       <c r="C3">
-        <v>0.4118365867780938</v>
+        <v>0.4173912933538304</v>
       </c>
       <c r="D3">
-        <v>0.06104086651484053</v>
+        <v>0.3272514664945021</v>
       </c>
       <c r="E3">
-        <v>0.02428920330356377</v>
+        <v>0.0342335813401391</v>
       </c>
       <c r="F3">
-        <v>2.179851727291378</v>
+        <v>5.827592025316591</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7624357553666812</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2939956006618729</v>
+        <v>0.2844073727671486</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.419485945766965</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951874105924617</v>
+        <v>2.688159322699789</v>
       </c>
       <c r="C4">
-        <v>0.3722306375657922</v>
+        <v>0.3760843217482659</v>
       </c>
       <c r="D4">
-        <v>0.06189883484280045</v>
+        <v>0.3053857047249409</v>
       </c>
       <c r="E4">
-        <v>0.02394127090722353</v>
+        <v>0.03326228356613292</v>
       </c>
       <c r="F4">
-        <v>2.045430634872673</v>
+        <v>5.361376330947195</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6904081514062597</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2693774522755206</v>
+        <v>0.259928962053749</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.431103448799291</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.833382486765458</v>
+        <v>2.574390697253875</v>
       </c>
       <c r="C5">
-        <v>0.3562162702005196</v>
+        <v>0.3594820757327</v>
       </c>
       <c r="D5">
-        <v>0.0622727241676273</v>
+        <v>0.2966154138388504</v>
       </c>
       <c r="E5">
-        <v>0.0238073489881101</v>
+        <v>0.03287523313442087</v>
       </c>
       <c r="F5">
-        <v>1.991827348894958</v>
+        <v>5.174370822252001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6613619429106521</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2594777403658668</v>
+        <v>0.2501285801123601</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.43634665489023</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.813782986359968</v>
+        <v>2.555609946881475</v>
       </c>
       <c r="C6">
-        <v>0.3535639460222342</v>
+        <v>0.3567378376071986</v>
       </c>
       <c r="D6">
-        <v>0.0623362242102985</v>
+        <v>0.2951668600959891</v>
       </c>
       <c r="E6">
-        <v>0.02378557311577278</v>
+        <v>0.03281145695866705</v>
       </c>
       <c r="F6">
-        <v>1.982993759799825</v>
+        <v>5.143484678321585</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6565559754701482</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.257841408825854</v>
+        <v>0.2485110672404431</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.437247042885176</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950270878788899</v>
+        <v>2.686617410685415</v>
       </c>
       <c r="C7">
-        <v>0.37201418756149</v>
+        <v>0.3758595472473019</v>
       </c>
       <c r="D7">
-        <v>0.06190378126619933</v>
+        <v>0.3052668908644591</v>
       </c>
       <c r="E7">
-        <v>0.02393943355119355</v>
+        <v>0.0332570298373458</v>
       </c>
       <c r="F7">
-        <v>2.044703137496413</v>
+        <v>5.358842882477035</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6900152470999998</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2692434275237616</v>
+        <v>0.2597961160941793</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.431172144533221</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.564918119167714</v>
+        <v>3.282891889493442</v>
       </c>
       <c r="C8">
-        <v>0.4546017110408798</v>
+        <v>0.4624007760191091</v>
       </c>
       <c r="D8">
-        <v>0.06021328574727391</v>
+        <v>0.3511374025061116</v>
       </c>
       <c r="E8">
-        <v>0.02468868769033961</v>
+        <v>0.03530368749226653</v>
       </c>
       <c r="F8">
-        <v>2.327683838758745</v>
+        <v>6.336722879386883</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8404748120674839</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3207672885923785</v>
+        <v>0.3111997331510707</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.408928385153828</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.828999647081957</v>
+        <v>4.541540760341661</v>
       </c>
       <c r="C9">
-        <v>0.6226780059547252</v>
+        <v>0.643743717867892</v>
       </c>
       <c r="D9">
-        <v>0.05781336304579554</v>
+        <v>0.4477488117742894</v>
       </c>
       <c r="E9">
-        <v>0.02644508717764715</v>
+        <v>0.03970568219358483</v>
       </c>
       <c r="F9">
-        <v>2.930789159388411</v>
+        <v>8.392101077003161</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.149125380297079</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4274341205529737</v>
+        <v>0.4197629133535088</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.384299048979813</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.809400620321355</v>
+        <v>5.549247310467535</v>
       </c>
       <c r="C10">
-        <v>0.7520253776102379</v>
+        <v>0.7887119663069768</v>
       </c>
       <c r="D10">
-        <v>0.05675775920916948</v>
+        <v>0.5251191044734753</v>
       </c>
       <c r="E10">
-        <v>0.02794823289078074</v>
+        <v>0.04329433714439368</v>
       </c>
       <c r="F10">
-        <v>3.414107853758537</v>
+        <v>10.03166138618582</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.388049871794763</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5106477825596016</v>
+        <v>0.5065973390481417</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.380636598729112</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.270801314860989</v>
+        <v>6.033866593517871</v>
       </c>
       <c r="C11">
-        <v>0.8127056264407884</v>
+        <v>0.8585604712302199</v>
       </c>
       <c r="D11">
-        <v>0.05647186549044392</v>
+        <v>0.5623679927705894</v>
       </c>
       <c r="E11">
-        <v>0.02868805568543031</v>
+        <v>0.04503767235568645</v>
       </c>
       <c r="F11">
-        <v>3.645568179016976</v>
+        <v>10.81858630513437</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.500401320957295</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5499269900772532</v>
+        <v>0.5483021741220568</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.382859496296263</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.448146364835225</v>
+        <v>6.222018769731847</v>
       </c>
       <c r="C12">
-        <v>0.8360038147939122</v>
+        <v>0.8857171566075976</v>
       </c>
       <c r="D12">
-        <v>0.05639566845464827</v>
+        <v>0.5768387970844344</v>
       </c>
       <c r="E12">
-        <v>0.02897721944367859</v>
+        <v>0.0457173779195994</v>
       </c>
       <c r="F12">
-        <v>3.735164002657598</v>
+        <v>11.12385119833567</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.543572603416678</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.565042194816229</v>
+        <v>0.5644820122678595</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.384335287280038</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.409828161980954</v>
+        <v>6.181274613748712</v>
       </c>
       <c r="C13">
-        <v>0.8309709305763988</v>
+        <v>0.8798343604684362</v>
       </c>
       <c r="D13">
-        <v>0.05641057941934235</v>
+        <v>0.5737047072188943</v>
       </c>
       <c r="E13">
-        <v>0.02891452557203955</v>
+        <v>0.04557005563668426</v>
       </c>
       <c r="F13">
-        <v>3.715776451328026</v>
+        <v>11.05775841299618</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.534245298234481</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5617755124256831</v>
+        <v>0.5609788899709827</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.383987935529689</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.28533649127661</v>
+        <v>6.04924736630619</v>
       </c>
       <c r="C14">
-        <v>0.8146156231841246</v>
+        <v>0.8607795499770816</v>
       </c>
       <c r="D14">
-        <v>0.05646492792963898</v>
+        <v>0.5635507315479913</v>
       </c>
       <c r="E14">
-        <v>0.02871165887719407</v>
+        <v>0.04509317687881875</v>
       </c>
       <c r="F14">
-        <v>3.652898513820844</v>
+        <v>10.8435459522446</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.503939874629225</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5511654705645839</v>
+        <v>0.5496250826457896</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.382967734116377</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.209436391630334</v>
+        <v>5.969009903640483</v>
       </c>
       <c r="C15">
-        <v>0.804640975181627</v>
+        <v>0.849204849678074</v>
       </c>
       <c r="D15">
-        <v>0.0565025281886804</v>
+        <v>0.5573810731994513</v>
       </c>
       <c r="E15">
-        <v>0.02858860092897508</v>
+        <v>0.0448037408388835</v>
       </c>
       <c r="F15">
-        <v>3.61464650006377</v>
+        <v>10.71332752975815</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.485461686956896</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5446990648818399</v>
+        <v>0.542723310849567</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.382427815711395</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.77959051677999</v>
+        <v>5.518173654377108</v>
       </c>
       <c r="C16">
-        <v>0.7481013393912406</v>
+        <v>0.7842374021908824</v>
       </c>
       <c r="D16">
-        <v>0.05678068983682039</v>
+        <v>0.522731775015302</v>
       </c>
       <c r="E16">
-        <v>0.02790108960979687</v>
+        <v>0.0431829265407071</v>
       </c>
       <c r="F16">
-        <v>3.399237668687448</v>
+        <v>9.981170846457474</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.380789326320453</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5081124360058311</v>
+        <v>0.5039218383756179</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.380575723538627</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.520112173821076</v>
+        <v>5.248873419965378</v>
       </c>
       <c r="C17">
-        <v>0.7139240630872337</v>
+        <v>0.7454747586392898</v>
       </c>
       <c r="D17">
-        <v>0.05700382178371655</v>
+        <v>0.5020467363878254</v>
       </c>
       <c r="E17">
-        <v>0.02749431164511762</v>
+        <v>0.04221932091705405</v>
       </c>
       <c r="F17">
-        <v>3.270247521684837</v>
+        <v>9.543421911749817</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.31758077395682</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4860567700921905</v>
+        <v>0.4807282117884455</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.380485365185521</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.372290118252295</v>
+        <v>5.09638420057064</v>
       </c>
       <c r="C18">
-        <v>0.694435567474045</v>
+        <v>0.7235363521972715</v>
       </c>
       <c r="D18">
-        <v>0.05715016629813618</v>
+        <v>0.4903374828096219</v>
       </c>
       <c r="E18">
-        <v>0.02726555377068784</v>
+        <v>0.04167525662891158</v>
       </c>
       <c r="F18">
-        <v>3.197128342798152</v>
+        <v>9.295410274843306</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.281562964630922</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4735026052589433</v>
+        <v>0.4675902729153165</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.380794355684444</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.322473080296731</v>
+        <v>5.045143586199742</v>
       </c>
       <c r="C19">
-        <v>0.6878646339017109</v>
+        <v>0.7161657639992427</v>
       </c>
       <c r="D19">
-        <v>0.05720269376506693</v>
+        <v>0.4864033573227573</v>
       </c>
       <c r="E19">
-        <v>0.02718896824208805</v>
+        <v>0.04149269633224684</v>
       </c>
       <c r="F19">
-        <v>3.172547800629133</v>
+        <v>9.212048268108305</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.269423223159393</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4692735782068098</v>
+        <v>0.4631748534536939</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.380958869893774</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.547584052839909</v>
+        <v>5.277286272748711</v>
       </c>
       <c r="C20">
-        <v>0.7175443888580446</v>
+        <v>0.7495632276864796</v>
       </c>
       <c r="D20">
-        <v>0.05697817788487924</v>
+        <v>0.5042287512918051</v>
       </c>
       <c r="E20">
-        <v>0.02753706816127632</v>
+        <v>0.04232082159439976</v>
       </c>
       <c r="F20">
-        <v>3.283865845966545</v>
+        <v>9.589621880107472</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.324273768721042</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4883907608580671</v>
+        <v>0.483175801227091</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.380457119443534</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.321827991948737</v>
+        <v>6.087893207043749</v>
       </c>
       <c r="C21">
-        <v>0.8194104071905599</v>
+        <v>0.8663559011556856</v>
       </c>
       <c r="D21">
-        <v>0.0564480578213491</v>
+        <v>0.5665226435540376</v>
       </c>
       <c r="E21">
-        <v>0.0287709929879405</v>
+        <v>0.04523268450407869</v>
       </c>
       <c r="F21">
-        <v>3.671312016277142</v>
+        <v>10.90625554687176</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.512823449280347</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5542750411876938</v>
+        <v>0.5529488272902654</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.383249531255657</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.843362822417134</v>
+        <v>6.64525944856149</v>
       </c>
       <c r="C22">
-        <v>0.8878826053566797</v>
+        <v>0.9468998621788387</v>
       </c>
       <c r="D22">
-        <v>0.05629094816932678</v>
+        <v>0.6094103914120979</v>
       </c>
       <c r="E22">
-        <v>0.02963048916423539</v>
+        <v>0.04725198571956568</v>
       </c>
       <c r="F22">
-        <v>3.936039696789095</v>
+        <v>11.81001835727494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.639759265246497</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5987599223332722</v>
+        <v>0.6008507324660854</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.388813592789376</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.563438774489271</v>
+        <v>6.344916703530146</v>
       </c>
       <c r="C23">
-        <v>0.8511434983150536</v>
+        <v>0.903468833293374</v>
       </c>
       <c r="D23">
-        <v>0.05635591857811306</v>
+        <v>0.5862938040408494</v>
       </c>
       <c r="E23">
-        <v>0.02916655437975813</v>
+        <v>0.04616219106598507</v>
       </c>
       <c r="F23">
-        <v>3.793592744523636</v>
+        <v>11.32316903632864</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.571635047311005</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5748736627266879</v>
+        <v>0.5750465111718341</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.385473988849853</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.535159824160189</v>
+        <v>5.264433611665538</v>
       </c>
       <c r="C24">
-        <v>0.7159071437972671</v>
+        <v>0.7477137612801243</v>
       </c>
       <c r="D24">
-        <v>0.05698971553216836</v>
+        <v>0.5032416979063896</v>
       </c>
       <c r="E24">
-        <v>0.02751772211186676</v>
+        <v>0.04227490248345234</v>
       </c>
       <c r="F24">
-        <v>3.277705785938252</v>
+        <v>9.568723585637116</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.321246871295997</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4873351740419594</v>
+        <v>0.4820686394379692</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.380468770610534</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.479223993933033</v>
+        <v>4.188839329033271</v>
       </c>
       <c r="C25">
-        <v>0.5763503249708037</v>
+        <v>0.5930130923987065</v>
       </c>
       <c r="D25">
-        <v>0.05835050526463448</v>
+        <v>0.4206837043530243</v>
       </c>
       <c r="E25">
-        <v>0.02593557776085831</v>
+        <v>0.0384623511829858</v>
       </c>
       <c r="F25">
-        <v>2.761437823274804</v>
+        <v>7.817094376496271</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.063801354591945</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3978399061126225</v>
+        <v>0.3893454176643871</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.388656398478318</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449608982848758</v>
+        <v>2.179726059491259</v>
       </c>
       <c r="C2">
-        <v>0.4864929202750261</v>
+        <v>0.1228732742888781</v>
       </c>
       <c r="D2">
-        <v>0.3639435445687411</v>
+        <v>0.2304411993542459</v>
       </c>
       <c r="E2">
-        <v>0.03588084626944443</v>
+        <v>0.05807592456849164</v>
       </c>
       <c r="F2">
-        <v>6.609572557456033</v>
+        <v>3.901996374871999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3255791882688044</v>
+        <v>0.2541781385874629</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972180362048448</v>
+        <v>2.089191184858919</v>
       </c>
       <c r="C3">
-        <v>0.4173912933538304</v>
+        <v>0.10634400533948</v>
       </c>
       <c r="D3">
-        <v>0.3272514664945021</v>
+        <v>0.2204273764007922</v>
       </c>
       <c r="E3">
-        <v>0.0342335813401391</v>
+        <v>0.05772313933454853</v>
       </c>
       <c r="F3">
-        <v>5.827592025316591</v>
+        <v>3.702702403506976</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2844073727671486</v>
+        <v>0.2461069628530481</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688159322699789</v>
+        <v>2.035691974967676</v>
       </c>
       <c r="C4">
-        <v>0.3760843217482659</v>
+        <v>0.0962401253910059</v>
       </c>
       <c r="D4">
-        <v>0.3053857047249409</v>
+        <v>0.2142908285511425</v>
       </c>
       <c r="E4">
-        <v>0.03326228356613292</v>
+        <v>0.05751285478055657</v>
       </c>
       <c r="F4">
-        <v>5.361376330947195</v>
+        <v>3.581514854234257</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.259928962053749</v>
+        <v>0.2413381715008285</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574390697253875</v>
+        <v>2.014412456098057</v>
       </c>
       <c r="C5">
-        <v>0.3594820757327</v>
+        <v>0.09213327816263472</v>
       </c>
       <c r="D5">
-        <v>0.2966154138388504</v>
+        <v>0.2117925400979175</v>
       </c>
       <c r="E5">
-        <v>0.03287523313442087</v>
+        <v>0.05742872881554284</v>
       </c>
       <c r="F5">
-        <v>5.174370822252001</v>
+        <v>3.532417022318725</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2501285801123601</v>
+        <v>0.2394415374433834</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555609946881475</v>
+        <v>2.010910423113955</v>
       </c>
       <c r="C6">
-        <v>0.3567378376071986</v>
+        <v>0.09145195467550593</v>
       </c>
       <c r="D6">
-        <v>0.2951668600959891</v>
+        <v>0.2113778287503436</v>
       </c>
       <c r="E6">
-        <v>0.03281145695866705</v>
+        <v>0.05741485368392141</v>
       </c>
       <c r="F6">
-        <v>5.143484678321585</v>
+        <v>3.524281425495786</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2485110672404431</v>
+        <v>0.2391294133550304</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686617410685415</v>
+        <v>2.035402883675147</v>
       </c>
       <c r="C7">
-        <v>0.3758595472473019</v>
+        <v>0.09618469726586909</v>
       </c>
       <c r="D7">
-        <v>0.3052668908644591</v>
+        <v>0.2142571268241085</v>
       </c>
       <c r="E7">
-        <v>0.0332570298373458</v>
+        <v>0.05751171391688281</v>
       </c>
       <c r="F7">
-        <v>5.358842882477035</v>
+        <v>3.580851553921434</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2597961160941793</v>
+        <v>0.2413124042139003</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282891889493442</v>
+        <v>2.148073715398311</v>
       </c>
       <c r="C8">
-        <v>0.4624007760191091</v>
+        <v>0.1171641256599969</v>
       </c>
       <c r="D8">
-        <v>0.3511374025061116</v>
+        <v>0.2269855772364338</v>
       </c>
       <c r="E8">
-        <v>0.03530368749226653</v>
+        <v>0.05795295624357344</v>
       </c>
       <c r="F8">
-        <v>6.336722879386883</v>
+        <v>3.833029101149521</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3111997331510707</v>
+        <v>0.2513561983885779</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.541540760341661</v>
+        <v>2.385782493052545</v>
       </c>
       <c r="C9">
-        <v>0.643743717867892</v>
+        <v>0.1587011295827949</v>
       </c>
       <c r="D9">
-        <v>0.4477488117742894</v>
+        <v>0.2520696190260878</v>
       </c>
       <c r="E9">
-        <v>0.03970568219358483</v>
+        <v>0.05886958666627073</v>
       </c>
       <c r="F9">
-        <v>8.392101077003161</v>
+        <v>4.337368848030707</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4197629133535088</v>
+        <v>0.2725515286155655</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.549247310467535</v>
+        <v>2.570925862391732</v>
       </c>
       <c r="C10">
-        <v>0.7887119663069768</v>
+        <v>0.18951641796167</v>
       </c>
       <c r="D10">
-        <v>0.5251191044734753</v>
+        <v>0.2706153454233515</v>
       </c>
       <c r="E10">
-        <v>0.04329433714439368</v>
+        <v>0.05957602564257769</v>
       </c>
       <c r="F10">
-        <v>10.03166138618582</v>
+        <v>4.714570110744432</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5065973390481417</v>
+        <v>0.2890626982867701</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.033866593517871</v>
+        <v>2.657496254550892</v>
       </c>
       <c r="C11">
-        <v>0.8585604712302199</v>
+        <v>0.2036124836003523</v>
       </c>
       <c r="D11">
-        <v>0.5623679927705894</v>
+        <v>0.2790866267349372</v>
       </c>
       <c r="E11">
-        <v>0.04503767235568645</v>
+        <v>0.0599049403145635</v>
       </c>
       <c r="F11">
-        <v>10.81858630513437</v>
+        <v>4.887765828894771</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5483021741220568</v>
+        <v>0.2967835988685295</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.222018769731847</v>
+        <v>2.690620766824054</v>
       </c>
       <c r="C12">
-        <v>0.8857171566075976</v>
+        <v>0.2089625199822649</v>
       </c>
       <c r="D12">
-        <v>0.5768387970844344</v>
+        <v>0.2823001902312114</v>
       </c>
       <c r="E12">
-        <v>0.0457173779195994</v>
+        <v>0.06003060721666742</v>
       </c>
       <c r="F12">
-        <v>11.12385119833567</v>
+        <v>4.953593037336759</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5644820122678595</v>
+        <v>0.2997379184986499</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.181274613748712</v>
+        <v>2.683471517211842</v>
       </c>
       <c r="C13">
-        <v>0.8798343604684362</v>
+        <v>0.2078097377753636</v>
       </c>
       <c r="D13">
-        <v>0.5737047072188943</v>
+        <v>0.2816078286331276</v>
       </c>
       <c r="E13">
-        <v>0.04557005563668426</v>
+        <v>0.06000349260095206</v>
       </c>
       <c r="F13">
-        <v>11.05775841299618</v>
+        <v>4.939405041870998</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5609788899709827</v>
+        <v>0.2991002862566461</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.04924736630619</v>
+        <v>2.660214543484074</v>
       </c>
       <c r="C14">
-        <v>0.8607795499770816</v>
+        <v>0.2040523850908471</v>
       </c>
       <c r="D14">
-        <v>0.5635507315479913</v>
+        <v>0.2793508909240074</v>
       </c>
       <c r="E14">
-        <v>0.04509317687881875</v>
+        <v>0.05991525651616492</v>
       </c>
       <c r="F14">
-        <v>10.8435459522446</v>
+        <v>4.893176564512942</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5496250826457896</v>
+        <v>0.2970260372745486</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.969009903640483</v>
+        <v>2.646013676394091</v>
       </c>
       <c r="C15">
-        <v>0.849204849678074</v>
+        <v>0.2017525102862692</v>
       </c>
       <c r="D15">
-        <v>0.5573810731994513</v>
+        <v>0.2779692104940352</v>
       </c>
       <c r="E15">
-        <v>0.0448037408388835</v>
+        <v>0.05986135529126635</v>
       </c>
       <c r="F15">
-        <v>10.71332752975815</v>
+        <v>4.864892098538292</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.542723310849567</v>
+        <v>0.2957594946665836</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.518173654377108</v>
+        <v>2.565315914551547</v>
       </c>
       <c r="C16">
-        <v>0.7842374021908824</v>
+        <v>0.1885968570953196</v>
       </c>
       <c r="D16">
-        <v>0.522731775015302</v>
+        <v>0.2700624840181831</v>
       </c>
       <c r="E16">
-        <v>0.0431829265407071</v>
+        <v>0.05955468465093361</v>
       </c>
       <c r="F16">
-        <v>9.981170846457474</v>
+        <v>4.703284591627494</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5039218383756179</v>
+        <v>0.2885623767261336</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.248873419965378</v>
+        <v>2.516414978595094</v>
       </c>
       <c r="C17">
-        <v>0.7454747586392898</v>
+        <v>0.1805469389478844</v>
       </c>
       <c r="D17">
-        <v>0.5020467363878254</v>
+        <v>0.26522134003784</v>
       </c>
       <c r="E17">
-        <v>0.04221932091705405</v>
+        <v>0.05936850623127299</v>
       </c>
       <c r="F17">
-        <v>9.543421911749817</v>
+        <v>4.604562428493097</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4807282117884455</v>
+        <v>0.2842012165262702</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.09638420057064</v>
+        <v>2.488509151719313</v>
       </c>
       <c r="C18">
-        <v>0.7235363521972715</v>
+        <v>0.1759241264221032</v>
       </c>
       <c r="D18">
-        <v>0.4903374828096219</v>
+        <v>0.2624400706331187</v>
       </c>
       <c r="E18">
-        <v>0.04167525662891158</v>
+        <v>0.0592621304536074</v>
       </c>
       <c r="F18">
-        <v>9.295410274843306</v>
+        <v>4.547930452495763</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4675902729153165</v>
+        <v>0.2817125234066111</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.045143586199742</v>
+        <v>2.479098486112377</v>
       </c>
       <c r="C19">
-        <v>0.7161657639992427</v>
+        <v>0.1743601448846732</v>
       </c>
       <c r="D19">
-        <v>0.4864033573227573</v>
+        <v>0.2614989146068041</v>
       </c>
       <c r="E19">
-        <v>0.04149269633224684</v>
+        <v>0.05922623438870822</v>
       </c>
       <c r="F19">
-        <v>9.212048268108305</v>
+        <v>4.528781339271575</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4631748534536939</v>
+        <v>0.2808732714517674</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.277286272748711</v>
+        <v>2.521597692579178</v>
       </c>
       <c r="C20">
-        <v>0.7495632276864796</v>
+        <v>0.1814031055102419</v>
       </c>
       <c r="D20">
-        <v>0.5042287512918051</v>
+        <v>0.2657363490516218</v>
       </c>
       <c r="E20">
-        <v>0.04232082159439976</v>
+        <v>0.05938825164818518</v>
       </c>
       <c r="F20">
-        <v>9.589621880107472</v>
+        <v>4.615055926583324</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.483175801227091</v>
+        <v>0.2846634245373139</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.087893207043749</v>
+        <v>2.667036356425399</v>
       </c>
       <c r="C21">
-        <v>0.8663559011556856</v>
+        <v>0.2051556729602169</v>
       </c>
       <c r="D21">
-        <v>0.5665226435540376</v>
+        <v>0.2800136488242231</v>
       </c>
       <c r="E21">
-        <v>0.04523268450407869</v>
+        <v>0.0599411431318515</v>
       </c>
       <c r="F21">
-        <v>10.90625554687176</v>
+        <v>4.90674833965835</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5529488272902654</v>
+        <v>0.2976344612406194</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.64525944856149</v>
+        <v>2.764085669485212</v>
       </c>
       <c r="C22">
-        <v>0.9468998621788387</v>
+        <v>0.220750693251631</v>
       </c>
       <c r="D22">
-        <v>0.6094103914120979</v>
+        <v>0.289378078011282</v>
       </c>
       <c r="E22">
-        <v>0.04725198571956568</v>
+        <v>0.06030899662805567</v>
       </c>
       <c r="F22">
-        <v>11.81001835727494</v>
+        <v>5.098800512015544</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6008507324660854</v>
+        <v>0.3062902338723319</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.344916703530146</v>
+        <v>2.712104371091698</v>
       </c>
       <c r="C23">
-        <v>0.903468833293374</v>
+        <v>0.2124204924417654</v>
       </c>
       <c r="D23">
-        <v>0.5862938040408494</v>
+        <v>0.2843768244980254</v>
       </c>
       <c r="E23">
-        <v>0.04616219106598507</v>
+        <v>0.0601120615007158</v>
       </c>
       <c r="F23">
-        <v>11.32316903632864</v>
+        <v>4.996165573358894</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5750465111718341</v>
+        <v>0.3016540215190417</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.264433611665538</v>
+        <v>2.51925394014296</v>
       </c>
       <c r="C24">
-        <v>0.7477137612801243</v>
+        <v>0.1810160165043726</v>
       </c>
       <c r="D24">
-        <v>0.5032416979063896</v>
+        <v>0.2655035073956356</v>
       </c>
       <c r="E24">
-        <v>0.04227490248345234</v>
+        <v>0.05937932268945723</v>
       </c>
       <c r="F24">
-        <v>9.568723585637116</v>
+        <v>4.610311428477075</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4820686394379692</v>
+        <v>0.2844544024031421</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.188839329033271</v>
+        <v>2.31965302548889</v>
       </c>
       <c r="C25">
-        <v>0.5930130923987065</v>
+        <v>0.1474160792265309</v>
       </c>
       <c r="D25">
-        <v>0.4206837043530243</v>
+        <v>0.245266265536884</v>
       </c>
       <c r="E25">
-        <v>0.0384623511829858</v>
+        <v>0.05861594346739807</v>
       </c>
       <c r="F25">
-        <v>7.817094376496271</v>
+        <v>4.19981096321078</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3893454176643871</v>
+        <v>0.2666545708322161</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.179726059491259</v>
+        <v>3.449608982848531</v>
       </c>
       <c r="C2">
-        <v>0.1228732742888781</v>
+        <v>0.4864929202748556</v>
       </c>
       <c r="D2">
-        <v>0.2304411993542459</v>
+        <v>0.3639435445688406</v>
       </c>
       <c r="E2">
-        <v>0.05807592456849164</v>
+        <v>0.03588084626941601</v>
       </c>
       <c r="F2">
-        <v>3.901996374871999</v>
+        <v>6.609572557455948</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2541781385874629</v>
+        <v>0.3255791882687475</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.089191184858919</v>
+        <v>2.972180362048618</v>
       </c>
       <c r="C3">
-        <v>0.10634400533948</v>
+        <v>0.4173912933542852</v>
       </c>
       <c r="D3">
-        <v>0.2204273764007922</v>
+        <v>0.3272514664943316</v>
       </c>
       <c r="E3">
-        <v>0.05772313933454853</v>
+        <v>0.03423358134017107</v>
       </c>
       <c r="F3">
-        <v>3.702702403506976</v>
+        <v>5.827592025316619</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2461069628530481</v>
+        <v>0.2844073727670491</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.035691974967676</v>
+        <v>2.688159322699676</v>
       </c>
       <c r="C4">
-        <v>0.0962401253910059</v>
+        <v>0.3760843217482943</v>
       </c>
       <c r="D4">
-        <v>0.2142908285511425</v>
+        <v>0.3053857047252251</v>
       </c>
       <c r="E4">
-        <v>0.05751285478055657</v>
+        <v>0.03326228356614891</v>
       </c>
       <c r="F4">
-        <v>3.581514854234257</v>
+        <v>5.361376330947252</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2413381715008285</v>
+        <v>0.2599289620537348</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.014412456098057</v>
+        <v>2.574390697254046</v>
       </c>
       <c r="C5">
-        <v>0.09213327816263472</v>
+        <v>0.3594820757327284</v>
       </c>
       <c r="D5">
-        <v>0.2117925400979175</v>
+        <v>0.296615413838623</v>
       </c>
       <c r="E5">
-        <v>0.05742872881554284</v>
+        <v>0.03287523313442264</v>
       </c>
       <c r="F5">
-        <v>3.532417022318725</v>
+        <v>5.174370822251973</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2394415374433834</v>
+        <v>0.2501285801123032</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.010910423113955</v>
+        <v>2.555609946881418</v>
       </c>
       <c r="C6">
-        <v>0.09145195467550593</v>
+        <v>0.3567378376071986</v>
       </c>
       <c r="D6">
-        <v>0.2113778287503436</v>
+        <v>0.2951668600958044</v>
       </c>
       <c r="E6">
-        <v>0.05741485368392141</v>
+        <v>0.03281145695860666</v>
       </c>
       <c r="F6">
-        <v>3.524281425495786</v>
+        <v>5.143484678321556</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2391294133550304</v>
+        <v>0.2485110672403295</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035402883675147</v>
+        <v>2.686617410685244</v>
       </c>
       <c r="C7">
-        <v>0.09618469726586909</v>
+        <v>0.3758595472477282</v>
       </c>
       <c r="D7">
-        <v>0.2142571268241085</v>
+        <v>0.3052668908642033</v>
       </c>
       <c r="E7">
-        <v>0.05751171391688281</v>
+        <v>0.03325702983736889</v>
       </c>
       <c r="F7">
-        <v>3.580851553921434</v>
+        <v>5.358842882477092</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2413124042139003</v>
+        <v>0.259796116094094</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.148073715398311</v>
+        <v>3.282891889493442</v>
       </c>
       <c r="C8">
-        <v>0.1171641256599969</v>
+        <v>0.4624007760188817</v>
       </c>
       <c r="D8">
-        <v>0.2269855772364338</v>
+        <v>0.3511374025059268</v>
       </c>
       <c r="E8">
-        <v>0.05795295624357344</v>
+        <v>0.03530368749223811</v>
       </c>
       <c r="F8">
-        <v>3.833029101149521</v>
+        <v>6.336722879386883</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2513561983885779</v>
+        <v>0.3111997331512697</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385782493052545</v>
+        <v>4.541540760341377</v>
       </c>
       <c r="C9">
-        <v>0.1587011295827949</v>
+        <v>0.6437437178674088</v>
       </c>
       <c r="D9">
-        <v>0.2520696190260878</v>
+        <v>0.4477488117744457</v>
       </c>
       <c r="E9">
-        <v>0.05886958666627073</v>
+        <v>0.03970568219355108</v>
       </c>
       <c r="F9">
-        <v>4.337368848030707</v>
+        <v>8.392101077003275</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2725515286155655</v>
+        <v>0.4197629133535514</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.570925862391732</v>
+        <v>5.549247310467422</v>
       </c>
       <c r="C10">
-        <v>0.18951641796167</v>
+        <v>0.7887119663064937</v>
       </c>
       <c r="D10">
-        <v>0.2706153454233515</v>
+        <v>0.5251191044738732</v>
       </c>
       <c r="E10">
-        <v>0.05957602564257769</v>
+        <v>0.04329433714432085</v>
       </c>
       <c r="F10">
-        <v>4.714570110744432</v>
+        <v>10.03166138618596</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2890626982867701</v>
+        <v>0.5065973390482839</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.657496254550892</v>
+        <v>6.0338665935177</v>
       </c>
       <c r="C11">
-        <v>0.2036124836003523</v>
+        <v>0.8585604712311294</v>
       </c>
       <c r="D11">
-        <v>0.2790866267349372</v>
+        <v>0.5623679927705325</v>
       </c>
       <c r="E11">
-        <v>0.0599049403145635</v>
+        <v>0.04503767235562073</v>
       </c>
       <c r="F11">
-        <v>4.887765828894771</v>
+        <v>10.81858630513437</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2967835988685295</v>
+        <v>0.5483021741222842</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.690620766824054</v>
+        <v>6.222018769732244</v>
       </c>
       <c r="C12">
-        <v>0.2089625199822649</v>
+        <v>0.8857171566081377</v>
       </c>
       <c r="D12">
-        <v>0.2823001902312114</v>
+        <v>0.5768387970844344</v>
       </c>
       <c r="E12">
-        <v>0.06003060721666742</v>
+        <v>0.04571737791960651</v>
       </c>
       <c r="F12">
-        <v>4.953593037336759</v>
+        <v>11.12385119833567</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2997379184986499</v>
+        <v>0.5644820122680301</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.683471517211842</v>
+        <v>6.181274613748656</v>
       </c>
       <c r="C13">
-        <v>0.2078097377753636</v>
+        <v>0.879834360467953</v>
       </c>
       <c r="D13">
-        <v>0.2816078286331276</v>
+        <v>0.5737047072193207</v>
       </c>
       <c r="E13">
-        <v>0.06000349260095206</v>
+        <v>0.0455700556366061</v>
       </c>
       <c r="F13">
-        <v>4.939405041870998</v>
+        <v>11.05775841299624</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2991002862566461</v>
+        <v>0.560978889971139</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.660214543484074</v>
+        <v>6.049247366305849</v>
       </c>
       <c r="C14">
-        <v>0.2040523850908471</v>
+        <v>0.860779549976229</v>
       </c>
       <c r="D14">
-        <v>0.2793508909240074</v>
+        <v>0.5635507315482755</v>
       </c>
       <c r="E14">
-        <v>0.05991525651616492</v>
+        <v>0.04509317687871039</v>
       </c>
       <c r="F14">
-        <v>4.893176564512942</v>
+        <v>10.84354595224448</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2970260372745486</v>
+        <v>0.5496250826459885</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.646013676394091</v>
+        <v>5.969009903640028</v>
       </c>
       <c r="C15">
-        <v>0.2017525102862692</v>
+        <v>0.8492048496776761</v>
       </c>
       <c r="D15">
-        <v>0.2779692104940352</v>
+        <v>0.5573810731993945</v>
       </c>
       <c r="E15">
-        <v>0.05986135529126635</v>
+        <v>0.04480374083880534</v>
       </c>
       <c r="F15">
-        <v>4.864892098538292</v>
+        <v>10.7133275297582</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2957594946665836</v>
+        <v>0.5427233108494818</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.565315914551547</v>
+        <v>5.518173654377335</v>
       </c>
       <c r="C16">
-        <v>0.1885968570953196</v>
+        <v>0.784237402190854</v>
       </c>
       <c r="D16">
-        <v>0.2700624840181831</v>
+        <v>0.5227317750149894</v>
       </c>
       <c r="E16">
-        <v>0.05955468465093361</v>
+        <v>0.04318292654061295</v>
       </c>
       <c r="F16">
-        <v>4.703284591627494</v>
+        <v>9.981170846457758</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2885623767261336</v>
+        <v>0.5039218383756605</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.516414978595094</v>
+        <v>5.248873419965605</v>
       </c>
       <c r="C17">
-        <v>0.1805469389478844</v>
+        <v>0.7454747586389487</v>
       </c>
       <c r="D17">
-        <v>0.26522134003784</v>
+        <v>0.5020467363879675</v>
       </c>
       <c r="E17">
-        <v>0.05936850623127299</v>
+        <v>0.04221932091693859</v>
       </c>
       <c r="F17">
-        <v>4.604562428493097</v>
+        <v>9.543421911749647</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2842012165262702</v>
+        <v>0.4807282117885023</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.488509151719313</v>
+        <v>5.096384200570583</v>
       </c>
       <c r="C18">
-        <v>0.1759241264221032</v>
+        <v>0.7235363521977547</v>
       </c>
       <c r="D18">
-        <v>0.2624400706331187</v>
+        <v>0.4903374828099061</v>
       </c>
       <c r="E18">
-        <v>0.0592621304536074</v>
+        <v>0.04167525662894533</v>
       </c>
       <c r="F18">
-        <v>4.547930452495763</v>
+        <v>9.295410274843192</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2817125234066111</v>
+        <v>0.4675902729153592</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.479098486112377</v>
+        <v>5.045143586199515</v>
       </c>
       <c r="C19">
-        <v>0.1743601448846732</v>
+        <v>0.7161657640001238</v>
       </c>
       <c r="D19">
-        <v>0.2614989146068041</v>
+        <v>0.4864033573225299</v>
       </c>
       <c r="E19">
-        <v>0.05922623438870822</v>
+        <v>0.04149269633224506</v>
       </c>
       <c r="F19">
-        <v>4.528781339271575</v>
+        <v>9.212048268108362</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2808732714517674</v>
+        <v>0.463174853453566</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.521597692579178</v>
+        <v>5.277286272748313</v>
       </c>
       <c r="C20">
-        <v>0.1814031055102419</v>
+        <v>0.7495632276856838</v>
       </c>
       <c r="D20">
-        <v>0.2657363490516218</v>
+        <v>0.504228751291663</v>
       </c>
       <c r="E20">
-        <v>0.05938825164818518</v>
+        <v>0.04232082159443884</v>
       </c>
       <c r="F20">
-        <v>4.615055926583324</v>
+        <v>9.589621880107273</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2846634245373139</v>
+        <v>0.4831758012270484</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.667036356425399</v>
+        <v>6.087893207043919</v>
       </c>
       <c r="C21">
-        <v>0.2051556729602169</v>
+        <v>0.8663559011552593</v>
       </c>
       <c r="D21">
-        <v>0.2800136488242231</v>
+        <v>0.5665226435540092</v>
       </c>
       <c r="E21">
-        <v>0.0599411431318515</v>
+        <v>0.04523268450408224</v>
       </c>
       <c r="F21">
-        <v>4.90674833965835</v>
+        <v>10.90625554687182</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2976344612406194</v>
+        <v>0.5529488272902654</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.764085669485212</v>
+        <v>6.64525944856166</v>
       </c>
       <c r="C22">
-        <v>0.220750693251631</v>
+        <v>0.9468998621792366</v>
       </c>
       <c r="D22">
-        <v>0.289378078011282</v>
+        <v>0.6094103914122968</v>
       </c>
       <c r="E22">
-        <v>0.06030899662805567</v>
+        <v>0.04725198571973444</v>
       </c>
       <c r="F22">
-        <v>5.098800512015544</v>
+        <v>11.81001835727494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3062902338723319</v>
+        <v>0.6008507324659149</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.712104371091698</v>
+        <v>6.344916703530487</v>
       </c>
       <c r="C23">
-        <v>0.2124204924417654</v>
+        <v>0.9034688332932319</v>
       </c>
       <c r="D23">
-        <v>0.2843768244980254</v>
+        <v>0.5862938040410199</v>
       </c>
       <c r="E23">
-        <v>0.0601120615007158</v>
+        <v>0.0461621910660206</v>
       </c>
       <c r="F23">
-        <v>4.996165573358894</v>
+        <v>11.32316903632875</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3016540215190417</v>
+        <v>0.5750465111716778</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.51925394014296</v>
+        <v>5.264433611665709</v>
       </c>
       <c r="C24">
-        <v>0.1810160165043726</v>
+        <v>0.7477137612800959</v>
       </c>
       <c r="D24">
-        <v>0.2655035073956356</v>
+        <v>0.5032416979062191</v>
       </c>
       <c r="E24">
-        <v>0.05937932268945723</v>
+        <v>0.04227490248335286</v>
       </c>
       <c r="F24">
-        <v>4.610311428477075</v>
+        <v>9.568723585636974</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2844544024031421</v>
+        <v>0.4820686394379692</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.31965302548889</v>
+        <v>4.188839329033442</v>
       </c>
       <c r="C25">
-        <v>0.1474160792265309</v>
+        <v>0.5930130923982517</v>
       </c>
       <c r="D25">
-        <v>0.245266265536884</v>
+        <v>0.4206837043528395</v>
       </c>
       <c r="E25">
-        <v>0.05861594346739807</v>
+        <v>0.03846235118304264</v>
       </c>
       <c r="F25">
-        <v>4.19981096321078</v>
+        <v>7.817094376496243</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2666545708322161</v>
+        <v>0.3893454176641598</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449608982848531</v>
+        <v>1.457143750127898</v>
       </c>
       <c r="C2">
-        <v>0.4864929202748556</v>
+        <v>0.1661238928371205</v>
       </c>
       <c r="D2">
-        <v>0.3639435445688406</v>
+        <v>0.06453331690214981</v>
       </c>
       <c r="E2">
-        <v>0.03588084626941601</v>
+        <v>0.03968407241331739</v>
       </c>
       <c r="F2">
-        <v>6.609572557455948</v>
+        <v>1.450888193602168</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.007184353487475426</v>
+      </c>
+      <c r="I2">
+        <v>0.01170165388172295</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9954355064332887</v>
       </c>
       <c r="L2">
-        <v>0.3255791882687475</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.437629741575108</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2941782188407416</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.521298406037744</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972180362048618</v>
+        <v>1.27347212525504</v>
       </c>
       <c r="C3">
-        <v>0.4173912933542852</v>
+        <v>0.1428213185533167</v>
       </c>
       <c r="D3">
-        <v>0.3272514664943316</v>
+        <v>0.06349298740937392</v>
       </c>
       <c r="E3">
-        <v>0.03423358134017107</v>
+        <v>0.03467689577937705</v>
       </c>
       <c r="F3">
-        <v>5.827592025316619</v>
+        <v>1.350934595844265</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01012625896484061</v>
+      </c>
+      <c r="I3">
+        <v>0.01561349963091585</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9457190669807858</v>
       </c>
       <c r="L3">
-        <v>0.2844073727670491</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.25229603959292</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2571484836517897</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.527508464154224</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688159322699676</v>
+        <v>1.160560633467355</v>
       </c>
       <c r="C4">
-        <v>0.3760843217482943</v>
+        <v>0.1288264342817627</v>
       </c>
       <c r="D4">
-        <v>0.3053857047252251</v>
+        <v>0.0628137457626945</v>
       </c>
       <c r="E4">
-        <v>0.03326228356614891</v>
+        <v>0.03161662653785413</v>
       </c>
       <c r="F4">
-        <v>5.361376330947252</v>
+        <v>1.290109084664437</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.01225708731887687</v>
+      </c>
+      <c r="I4">
+        <v>0.01843113240336258</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9152470494639147</v>
       </c>
       <c r="L4">
-        <v>0.2599289620537348</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.138824773803549</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.234464304077548</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.531433129410445</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574390697254046</v>
+        <v>1.113374375596862</v>
       </c>
       <c r="C5">
-        <v>0.3594820757327284</v>
+        <v>0.1234165466369177</v>
       </c>
       <c r="D5">
-        <v>0.296615413838623</v>
+        <v>0.06253059265472416</v>
       </c>
       <c r="E5">
-        <v>0.03287523313442264</v>
+        <v>0.03034266193656343</v>
       </c>
       <c r="F5">
-        <v>5.174370822251973</v>
+        <v>1.264062418358748</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.01321084801900849</v>
+      </c>
+      <c r="I5">
+        <v>0.01977544040314472</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9017073530621573</v>
       </c>
       <c r="L5">
-        <v>0.2501285801123032</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.092147057343681</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2252641817087522</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.531827165604355</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555609946881418</v>
+        <v>1.104155806276793</v>
       </c>
       <c r="C6">
-        <v>0.3567378376071986</v>
+        <v>0.1227950419249169</v>
       </c>
       <c r="D6">
-        <v>0.2951668600958044</v>
+        <v>0.06248794361113141</v>
       </c>
       <c r="E6">
-        <v>0.03281145695860666</v>
+        <v>0.03009552383321612</v>
       </c>
       <c r="F6">
-        <v>5.143484678321556</v>
+        <v>1.258054229343927</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.01338272707814658</v>
+      </c>
+      <c r="I6">
+        <v>0.02012897239819278</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8980781316569448</v>
       </c>
       <c r="L6">
-        <v>0.2485110672403295</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.08378707056039</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2237792837764232</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.530393306340905</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686617410685244</v>
+        <v>1.156140257201827</v>
       </c>
       <c r="C7">
-        <v>0.3758595472477282</v>
+        <v>0.1294992632776371</v>
       </c>
       <c r="D7">
-        <v>0.3052668908642033</v>
+        <v>0.06282451922359833</v>
       </c>
       <c r="E7">
-        <v>0.03325702983736889</v>
+        <v>0.03150145802270821</v>
       </c>
       <c r="F7">
-        <v>5.358842882477092</v>
+        <v>1.28513709245901</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.01229242397488892</v>
+      </c>
+      <c r="I7">
+        <v>0.01876956384877371</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9112892138399857</v>
       </c>
       <c r="L7">
-        <v>0.259796116094094</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.136514823941468</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2344559928259429</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.527353605085921</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282891889493442</v>
+        <v>1.388767563195728</v>
       </c>
       <c r="C8">
-        <v>0.4624007760188817</v>
+        <v>0.1590130127489857</v>
       </c>
       <c r="D8">
-        <v>0.3511374025059268</v>
+        <v>0.06420738336618825</v>
       </c>
       <c r="E8">
-        <v>0.03530368749223811</v>
+        <v>0.03782219651640162</v>
       </c>
       <c r="F8">
-        <v>6.336722879386883</v>
+        <v>1.410174729270693</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.008152802970013473</v>
+      </c>
+      <c r="I8">
+        <v>0.01334026220427909</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9732787024154348</v>
       </c>
       <c r="L8">
-        <v>0.3111997331512697</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.371392166915626</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2815512221012142</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.518080806532069</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.541540760341377</v>
+        <v>1.851327031800565</v>
       </c>
       <c r="C9">
-        <v>0.6437437178674088</v>
+        <v>0.2184111436152278</v>
       </c>
       <c r="D9">
-        <v>0.4477488117744457</v>
+        <v>0.06656255326546123</v>
       </c>
       <c r="E9">
-        <v>0.03970568219355108</v>
+        <v>0.05056866444406261</v>
       </c>
       <c r="F9">
-        <v>8.392101077003275</v>
+        <v>1.668733926818135</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.002743788258669611</v>
+      </c>
+      <c r="I9">
+        <v>0.005718430251305584</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.10230754855818</v>
       </c>
       <c r="L9">
-        <v>0.4197629133535514</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.83852950331314</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3742945559047541</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.508150134963671</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.549247310467422</v>
+        <v>2.172384429451654</v>
       </c>
       <c r="C10">
-        <v>0.7887119663064937</v>
+        <v>0.2665724449912972</v>
       </c>
       <c r="D10">
-        <v>0.5251191044738732</v>
+        <v>0.06829504736414194</v>
       </c>
       <c r="E10">
-        <v>0.04329433714432085</v>
+        <v>0.05657591000914763</v>
       </c>
       <c r="F10">
-        <v>10.03166138618596</v>
+        <v>1.837370937223696</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0009447126547619256</v>
+      </c>
+      <c r="I10">
+        <v>0.002757040924747045</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.178351809518468</v>
       </c>
       <c r="L10">
-        <v>0.5065973390482839</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.173636007218334</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4239985096697154</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.481393626841395</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.0338665935177</v>
+        <v>2.16061031271181</v>
       </c>
       <c r="C11">
-        <v>0.8585604712311294</v>
+        <v>0.3069875658921717</v>
       </c>
       <c r="D11">
-        <v>0.5623679927705325</v>
+        <v>0.07196660978154057</v>
       </c>
       <c r="E11">
-        <v>0.04503767235562073</v>
+        <v>0.03460633174255712</v>
       </c>
       <c r="F11">
-        <v>10.81858630513437</v>
+        <v>1.709386661072628</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01950400476729541</v>
+      </c>
+      <c r="I11">
+        <v>0.002812026411850077</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.058055778963002</v>
       </c>
       <c r="L11">
-        <v>0.5483021741222842</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.230170378968324</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2958374546204823</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.315901185589823</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.222018769732244</v>
+        <v>2.088239129289718</v>
       </c>
       <c r="C12">
-        <v>0.8857171566081377</v>
+        <v>0.3304784821042404</v>
       </c>
       <c r="D12">
-        <v>0.5768387970844344</v>
+        <v>0.07618913575505815</v>
       </c>
       <c r="E12">
-        <v>0.04571737791960651</v>
+        <v>0.02273048590696369</v>
       </c>
       <c r="F12">
-        <v>11.12385119833567</v>
+        <v>1.575985275358207</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.05832603968197247</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002798224121294268</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9516306073117136</v>
       </c>
       <c r="L12">
-        <v>0.5644820122680301</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.208241380609735</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1973820389690957</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.20249778873265</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.181274613748656</v>
+        <v>1.959556759886823</v>
       </c>
       <c r="C13">
-        <v>0.879834360467953</v>
+        <v>0.3431204274669994</v>
       </c>
       <c r="D13">
-        <v>0.5737047072193207</v>
+        <v>0.08100814637891318</v>
       </c>
       <c r="E13">
-        <v>0.0455700556366061</v>
+        <v>0.01772012182008048</v>
       </c>
       <c r="F13">
-        <v>11.05775841299624</v>
+        <v>1.42361400642838</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1144073805051704</v>
+      </c>
+      <c r="I13">
+        <v>0.003126615964667678</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8440241196306957</v>
       </c>
       <c r="L13">
-        <v>0.560978889971139</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.121942230426981</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.116808802472022</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.115678106065978</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.049247366305849</v>
+        <v>1.843807256347759</v>
       </c>
       <c r="C14">
-        <v>0.860779549976229</v>
+        <v>0.347350870725819</v>
       </c>
       <c r="D14">
-        <v>0.5635507315482755</v>
+        <v>0.0848251522915433</v>
       </c>
       <c r="E14">
-        <v>0.04509317687871039</v>
+        <v>0.01835263067633441</v>
       </c>
       <c r="F14">
-        <v>10.84354595224448</v>
+        <v>1.308568127918051</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1640945974527597</v>
+      </c>
+      <c r="I14">
+        <v>0.003650947605267518</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.768593005204437</v>
       </c>
       <c r="L14">
-        <v>0.5496250826459885</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.032376288953856</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07176772562210942</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.068195215650711</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.969009903640028</v>
+        <v>1.802560905579099</v>
       </c>
       <c r="C15">
-        <v>0.8492048496776761</v>
+        <v>0.3462875030619443</v>
       </c>
       <c r="D15">
-        <v>0.5573810731993945</v>
+        <v>0.0857360584365523</v>
       </c>
       <c r="E15">
-        <v>0.04480374083880534</v>
+        <v>0.01895823342440739</v>
       </c>
       <c r="F15">
-        <v>10.7133275297582</v>
+        <v>1.274853098506526</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1767644109586968</v>
+      </c>
+      <c r="I15">
+        <v>0.004012559685394379</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7483535611281553</v>
       </c>
       <c r="L15">
-        <v>0.5427233108494818</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.996536975642272</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06209719500557043</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.059647588948572</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.518173654377335</v>
+        <v>1.691807030250374</v>
       </c>
       <c r="C16">
-        <v>0.784237402190854</v>
+        <v>0.3225492401512895</v>
       </c>
       <c r="D16">
-        <v>0.5227317750149894</v>
+        <v>0.08379874048738856</v>
       </c>
       <c r="E16">
-        <v>0.04318292654061295</v>
+        <v>0.01759009510996457</v>
       </c>
       <c r="F16">
-        <v>9.981170846457758</v>
+        <v>1.232864230930048</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1648595993660678</v>
+      </c>
+      <c r="I16">
+        <v>0.005308968512212076</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7372937498338317</v>
       </c>
       <c r="L16">
-        <v>0.5039218383756605</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.870346513546053</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06005261725672284</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.085960166752045</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.248873419965605</v>
+        <v>1.667691409508677</v>
       </c>
       <c r="C17">
-        <v>0.7454747586389487</v>
+        <v>0.3022520915692724</v>
       </c>
       <c r="D17">
-        <v>0.5020467363879675</v>
+        <v>0.08020520294611799</v>
       </c>
       <c r="E17">
-        <v>0.04221932091693859</v>
+        <v>0.01546297527575868</v>
       </c>
       <c r="F17">
-        <v>9.543421911749647</v>
+        <v>1.26099123421335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.12755653380448</v>
+      </c>
+      <c r="I17">
+        <v>0.006077058604294194</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7679512411461289</v>
       </c>
       <c r="L17">
-        <v>0.4807282117885023</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.82106671741721</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08007112050837861</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.130186031666106</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.096384200570583</v>
+        <v>1.71845925343834</v>
       </c>
       <c r="C18">
-        <v>0.7235363521977547</v>
+        <v>0.2820585847416339</v>
       </c>
       <c r="D18">
-        <v>0.4903374828099061</v>
+        <v>0.07536586748027574</v>
       </c>
       <c r="E18">
-        <v>0.04167525662894533</v>
+        <v>0.01621873059607903</v>
       </c>
       <c r="F18">
-        <v>9.295410274843192</v>
+        <v>1.357966902921021</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07475382898703486</v>
+      </c>
+      <c r="I18">
+        <v>0.005986031528975033</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8435230570745276</v>
       </c>
       <c r="L18">
-        <v>0.4675902729153592</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.833065338896148</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1315846682351207</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.204269933871565</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.045143586199515</v>
+        <v>1.820051820631136</v>
       </c>
       <c r="C19">
-        <v>0.7161657640001238</v>
+        <v>0.2654530848149079</v>
       </c>
       <c r="D19">
-        <v>0.4864033573225299</v>
+        <v>0.07114903870450462</v>
       </c>
       <c r="E19">
-        <v>0.04149269633224506</v>
+        <v>0.02486780860357651</v>
       </c>
       <c r="F19">
-        <v>9.212048268108362</v>
+        <v>1.49989328470339</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02902199678941031</v>
+      </c>
+      <c r="I19">
+        <v>0.005749231736294824</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9491866279448615</v>
       </c>
       <c r="L19">
-        <v>0.463174853453566</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.890269790031766</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2206538305785415</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.303582452419981</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.277286272748313</v>
+        <v>2.075101930352332</v>
       </c>
       <c r="C20">
-        <v>0.7495632276856838</v>
+        <v>0.2562099963883071</v>
       </c>
       <c r="D20">
-        <v>0.504228751291663</v>
+        <v>0.06795681191936254</v>
       </c>
       <c r="E20">
-        <v>0.04232082159443884</v>
+        <v>0.05452013758082686</v>
       </c>
       <c r="F20">
-        <v>9.589621880107273</v>
+        <v>1.777375163960215</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.001295174949166089</v>
+      </c>
+      <c r="I20">
+        <v>0.004240480453283624</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.145868967502437</v>
       </c>
       <c r="L20">
-        <v>0.4831758012270484</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.079443633290623</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4104732768116435</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.475516592198261</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.087893207043919</v>
+        <v>2.351335185822393</v>
       </c>
       <c r="C21">
-        <v>0.8663559011552593</v>
+        <v>0.290743107372208</v>
       </c>
       <c r="D21">
-        <v>0.5665226435540092</v>
+        <v>0.06891931368313919</v>
       </c>
       <c r="E21">
-        <v>0.04523268450408224</v>
+        <v>0.06469216004763467</v>
       </c>
       <c r="F21">
-        <v>10.90625554687182</v>
+        <v>1.947386840933845</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.0001775403628290206</v>
+      </c>
+      <c r="I21">
+        <v>0.002510245620257479</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.234497574804408</v>
       </c>
       <c r="L21">
-        <v>0.5529488272902654</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.355755176623632</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4783876687827444</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.486575128003309</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.64525944856166</v>
+        <v>2.528596030493759</v>
       </c>
       <c r="C22">
-        <v>0.9468998621792366</v>
+        <v>0.3138672404255942</v>
       </c>
       <c r="D22">
-        <v>0.6094103914122968</v>
+        <v>0.06956934218325195</v>
       </c>
       <c r="E22">
-        <v>0.04725198571973444</v>
+        <v>0.06976404708383654</v>
       </c>
       <c r="F22">
-        <v>11.81001835727494</v>
+        <v>2.053894346203535</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>2.390575772892589E-07</v>
+      </c>
+      <c r="I22">
+        <v>0.001627156737025182</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.288635880070984</v>
       </c>
       <c r="L22">
-        <v>0.6008507324659149</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.534327489096967</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5130983447131428</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.489707536914977</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.344916703530487</v>
+        <v>2.438614486857091</v>
       </c>
       <c r="C23">
-        <v>0.9034688332932319</v>
+        <v>0.3005601257190449</v>
       </c>
       <c r="D23">
-        <v>0.5862938040410199</v>
+        <v>0.06918901285240509</v>
       </c>
       <c r="E23">
-        <v>0.0461621910660206</v>
+        <v>0.06717392172318526</v>
       </c>
       <c r="F23">
-        <v>11.32316903632875</v>
+        <v>2.002425655844348</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>5.207274370766513E-05</v>
+      </c>
+      <c r="I23">
+        <v>0.001725394895229826</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.264167079142283</v>
       </c>
       <c r="L23">
-        <v>0.5750465111716778</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.441013143071018</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4944146732652683</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.492559556500709</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.264433611665709</v>
+        <v>2.09144415063156</v>
       </c>
       <c r="C24">
-        <v>0.7477137612800959</v>
+        <v>0.2528125686729226</v>
       </c>
       <c r="D24">
-        <v>0.5032416979062191</v>
+        <v>0.06773392637504472</v>
       </c>
       <c r="E24">
-        <v>0.04227490248335286</v>
+        <v>0.05730711381451314</v>
       </c>
       <c r="F24">
-        <v>9.568723585636974</v>
+        <v>1.801341921090213</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.001110240039719379</v>
+      </c>
+      <c r="I24">
+        <v>0.003677472872864129</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.165225530561898</v>
       </c>
       <c r="L24">
-        <v>0.4820686394379692</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.086587269175737</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4242892368669118</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.496910540758805</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.188839329033442</v>
+        <v>1.719135924232688</v>
       </c>
       <c r="C25">
-        <v>0.5930130923982517</v>
+        <v>0.2033504171308493</v>
       </c>
       <c r="D25">
-        <v>0.4206837043528395</v>
+        <v>0.06600352979392099</v>
       </c>
       <c r="E25">
-        <v>0.03846235118304264</v>
+        <v>0.04690950577686515</v>
       </c>
       <c r="F25">
-        <v>7.817094376496243</v>
+        <v>1.589748125878998</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.00391080471573646</v>
+      </c>
+      <c r="I25">
+        <v>0.007881413081980426</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.060456739941522</v>
       </c>
       <c r="L25">
-        <v>0.3893454176641598</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.708508560408205</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3493247742624135</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.503547093170667</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.457143750127898</v>
+        <v>1.293512977035078</v>
       </c>
       <c r="C2">
-        <v>0.1661238928371205</v>
+        <v>0.195397907056531</v>
       </c>
       <c r="D2">
-        <v>0.06453331690214981</v>
+        <v>0.06152453841081496</v>
       </c>
       <c r="E2">
-        <v>0.03968407241331739</v>
+        <v>0.03655214834954279</v>
       </c>
       <c r="F2">
-        <v>1.450888193602168</v>
+        <v>1.229038571173319</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.007184353487475426</v>
+        <v>0.005294415772388428</v>
       </c>
       <c r="I2">
-        <v>0.01170165388172295</v>
+        <v>0.008290103336176635</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.9954355064332887</v>
+        <v>0.8027660343773277</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3351221239495743</v>
       </c>
       <c r="M2">
-        <v>1.437629741575108</v>
+        <v>0.2683746810991501</v>
       </c>
       <c r="N2">
-        <v>0.2941782188407416</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.370853148113468</v>
       </c>
       <c r="P2">
-        <v>1.521298406037744</v>
+        <v>0.3061222234562706</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.302324396868102</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.27347212525504</v>
+        <v>1.133870717038974</v>
       </c>
       <c r="C3">
-        <v>0.1428213185533167</v>
+        <v>0.1668903676332576</v>
       </c>
       <c r="D3">
-        <v>0.06349298740937392</v>
+        <v>0.05974417388850028</v>
       </c>
       <c r="E3">
-        <v>0.03467689577937705</v>
+        <v>0.03220453375084986</v>
       </c>
       <c r="F3">
-        <v>1.350934595844265</v>
+        <v>1.155211800681016</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01012625896484061</v>
+        <v>0.007622129895060448</v>
       </c>
       <c r="I3">
-        <v>0.01561349963091585</v>
+        <v>0.01115861011626018</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.9457190669807858</v>
+        <v>0.7730928491348976</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3309904799219154</v>
       </c>
       <c r="M3">
-        <v>1.25229603959292</v>
+        <v>0.2517311239437028</v>
       </c>
       <c r="N3">
-        <v>0.2571484836517897</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.195979262488066</v>
       </c>
       <c r="P3">
-        <v>1.527508464154224</v>
+        <v>0.2683264022074638</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.325870458432021</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.160560633467355</v>
+        <v>1.035402431958659</v>
       </c>
       <c r="C4">
-        <v>0.1288264342817627</v>
+        <v>0.1497928170161344</v>
       </c>
       <c r="D4">
-        <v>0.0628137457626945</v>
+        <v>0.05863140435054071</v>
       </c>
       <c r="E4">
-        <v>0.03161662653785413</v>
+        <v>0.02953847136608623</v>
       </c>
       <c r="F4">
-        <v>1.290109084664437</v>
+        <v>1.110204575595972</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01225708731887687</v>
+        <v>0.009322457055769784</v>
       </c>
       <c r="I4">
-        <v>0.01843113240336258</v>
+        <v>0.01325436907951527</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.9152470494639147</v>
+        <v>0.7547907852458522</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3281486041293391</v>
       </c>
       <c r="M4">
-        <v>1.138824773803549</v>
+        <v>0.2422906874997643</v>
       </c>
       <c r="N4">
-        <v>0.234464304077548</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.088714606279524</v>
       </c>
       <c r="P4">
-        <v>1.531433129410445</v>
+        <v>0.2451619984763198</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.340504941855187</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.113374375596862</v>
+        <v>0.9941483781596787</v>
       </c>
       <c r="C5">
-        <v>0.1234165466369177</v>
+        <v>0.1431530624448953</v>
       </c>
       <c r="D5">
-        <v>0.06253059265472416</v>
+        <v>0.0581934646777178</v>
       </c>
       <c r="E5">
-        <v>0.03034266193656343</v>
+        <v>0.02842571289717455</v>
       </c>
       <c r="F5">
-        <v>1.264062418358748</v>
+        <v>1.090738313650249</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01321084801900849</v>
+        <v>0.01008665396056348</v>
       </c>
       <c r="I5">
-        <v>0.01977544040314472</v>
+        <v>0.01429451219768207</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.9017073530621573</v>
+        <v>0.7463729491755444</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.326508201350066</v>
       </c>
       <c r="M5">
-        <v>1.092147057343681</v>
+        <v>0.2383415369971758</v>
       </c>
       <c r="N5">
-        <v>0.2252641817087522</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.044554661569265</v>
       </c>
       <c r="P5">
-        <v>1.531827165604355</v>
+        <v>0.2357618163552928</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.345584966324751</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.104155806276793</v>
+        <v>0.9860579712214417</v>
       </c>
       <c r="C6">
-        <v>0.1227950419249169</v>
+        <v>0.1423431119131635</v>
       </c>
       <c r="D6">
-        <v>0.06248794361113141</v>
+        <v>0.05814597032126478</v>
       </c>
       <c r="E6">
-        <v>0.03009552383321612</v>
+        <v>0.02820892404161057</v>
       </c>
       <c r="F6">
-        <v>1.258054229343927</v>
+        <v>1.08604916052046</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01338272707814658</v>
+        <v>0.01022467629284742</v>
       </c>
       <c r="I6">
-        <v>0.02012897239819278</v>
+        <v>0.01460949859836536</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.8980781316569448</v>
+        <v>0.7438310687501897</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3257369022633441</v>
       </c>
       <c r="M6">
-        <v>1.08378707056039</v>
+        <v>0.2373358960930503</v>
       </c>
       <c r="N6">
-        <v>0.2237792837764232</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.036657656992389</v>
       </c>
       <c r="P6">
-        <v>1.530393306340905</v>
+        <v>0.2342406135850723</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.345303521986665</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.156140257201827</v>
+        <v>1.031470639827575</v>
       </c>
       <c r="C7">
-        <v>0.1294992632776371</v>
+        <v>0.1504897856886345</v>
       </c>
       <c r="D7">
-        <v>0.06282451922359833</v>
+        <v>0.05869727796741486</v>
       </c>
       <c r="E7">
-        <v>0.03150145802270821</v>
+        <v>0.02943587212802079</v>
       </c>
       <c r="F7">
-        <v>1.28513709245901</v>
+        <v>1.105956511560208</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01229242397488892</v>
+        <v>0.009351047998689535</v>
       </c>
       <c r="I7">
-        <v>0.01876956384877371</v>
+        <v>0.01362252556579868</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.9112892138399857</v>
+        <v>0.751563669406444</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3268006440559645</v>
       </c>
       <c r="M7">
-        <v>1.136514823941468</v>
+        <v>0.2412303351692451</v>
       </c>
       <c r="N7">
-        <v>0.2344559928259429</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.086571147941441</v>
       </c>
       <c r="P7">
-        <v>1.527353605085921</v>
+        <v>0.2451430153249703</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.337523828651541</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.388767563195728</v>
+        <v>1.234053041241253</v>
       </c>
       <c r="C8">
-        <v>0.1590130127489857</v>
+        <v>0.1865322506039604</v>
       </c>
       <c r="D8">
-        <v>0.06420738336618825</v>
+        <v>0.06101901682616884</v>
       </c>
       <c r="E8">
-        <v>0.03782219651640162</v>
+        <v>0.03493473830494231</v>
       </c>
       <c r="F8">
-        <v>1.410174729270693</v>
+        <v>1.198256189635202</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.008152802970013473</v>
+        <v>0.006057849821650085</v>
       </c>
       <c r="I8">
-        <v>0.01334026220427909</v>
+        <v>0.009630084232632008</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.9732787024154348</v>
+        <v>0.7884635332649097</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.332105701532825</v>
       </c>
       <c r="M8">
-        <v>1.371392166915626</v>
+        <v>0.2610648003830782</v>
       </c>
       <c r="N8">
-        <v>0.2815512221012142</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.308451594669435</v>
       </c>
       <c r="P8">
-        <v>1.518080806532069</v>
+        <v>0.2932236806713036</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.306504662870282</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.851327031800565</v>
+        <v>1.63424768605131</v>
       </c>
       <c r="C9">
-        <v>0.2184111436152278</v>
+        <v>0.2594230407660518</v>
       </c>
       <c r="D9">
-        <v>0.06656255326546123</v>
+        <v>0.0652780734955769</v>
       </c>
       <c r="E9">
-        <v>0.05056866444406261</v>
+        <v>0.04595264781416297</v>
       </c>
       <c r="F9">
-        <v>1.668733926818135</v>
+        <v>1.389487850649729</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.002743788258669611</v>
+        <v>0.001861152480439721</v>
       </c>
       <c r="I9">
-        <v>0.005718430251305584</v>
+        <v>0.004077693274007643</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.10230754855818</v>
+        <v>0.8658612687291054</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3423084972347894</v>
       </c>
       <c r="M9">
-        <v>1.83852950331314</v>
+        <v>0.3082087624237957</v>
       </c>
       <c r="N9">
-        <v>0.3742945559047541</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.747960232086314</v>
       </c>
       <c r="P9">
-        <v>1.508150134963671</v>
+        <v>0.3878077165884406</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.252463423761796</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.172384429451654</v>
+        <v>1.911417960109588</v>
       </c>
       <c r="C10">
-        <v>0.2665724449912972</v>
+        <v>0.3177058337461176</v>
       </c>
       <c r="D10">
-        <v>0.06829504736414194</v>
+        <v>0.06885319113505162</v>
       </c>
       <c r="E10">
-        <v>0.05657591000914763</v>
+        <v>0.05093373623759767</v>
       </c>
       <c r="F10">
-        <v>1.837370937223696</v>
+        <v>1.51281988682608</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0009447126547619256</v>
+        <v>0.0006074715795425512</v>
       </c>
       <c r="I10">
-        <v>0.002757040924747045</v>
+        <v>0.002145019514705027</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.178351809518468</v>
+        <v>0.9083519840558978</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3432283450941398</v>
       </c>
       <c r="M10">
-        <v>2.173636007218334</v>
+        <v>0.3412595958601869</v>
       </c>
       <c r="N10">
-        <v>0.4239985096697154</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.062902793359342</v>
       </c>
       <c r="P10">
-        <v>1.481393626841395</v>
+        <v>0.4383819269793037</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.201027534730699</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.16061031271181</v>
+        <v>1.911627042964341</v>
       </c>
       <c r="C11">
-        <v>0.3069875658921717</v>
+        <v>0.3597568683753138</v>
       </c>
       <c r="D11">
-        <v>0.07196660978154057</v>
+        <v>0.0758408602467604</v>
       </c>
       <c r="E11">
-        <v>0.03460633174255712</v>
+        <v>0.03111135476253146</v>
       </c>
       <c r="F11">
-        <v>1.709386661072628</v>
+        <v>1.409714806060151</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01950400476729541</v>
+        <v>0.01918240363862367</v>
       </c>
       <c r="I11">
-        <v>0.002812026411850077</v>
+        <v>0.002470552972484441</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.058055778963002</v>
+        <v>0.8151026800633829</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3038969828264939</v>
       </c>
       <c r="M11">
-        <v>2.230170378968324</v>
+        <v>0.3119962516337438</v>
       </c>
       <c r="N11">
-        <v>0.2958374546204823</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.123170788568785</v>
       </c>
       <c r="P11">
-        <v>1.315901185589823</v>
+        <v>0.3074644107810656</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.083547632366603</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.088239129289718</v>
+        <v>1.857971252371925</v>
       </c>
       <c r="C12">
-        <v>0.3304784821042404</v>
+        <v>0.3820379205403412</v>
       </c>
       <c r="D12">
-        <v>0.07618913575505815</v>
+        <v>0.08206705996853003</v>
       </c>
       <c r="E12">
-        <v>0.02273048590696369</v>
+        <v>0.02106826398434203</v>
       </c>
       <c r="F12">
-        <v>1.575985275358207</v>
+        <v>1.304882082899596</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05832603968197247</v>
+        <v>0.0579629487652582</v>
       </c>
       <c r="I12">
-        <v>0.002798224121294268</v>
+        <v>0.002451418353587087</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.9516306073117136</v>
+        <v>0.7361140750085227</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2742945141305029</v>
       </c>
       <c r="M12">
-        <v>2.208241380609735</v>
+        <v>0.2828851347133607</v>
       </c>
       <c r="N12">
-        <v>0.1973820389690957</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.10861683599839</v>
       </c>
       <c r="P12">
-        <v>1.20249778873265</v>
+        <v>0.2066745938249568</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.010787521299065</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.959556759886823</v>
+        <v>1.754766632184669</v>
       </c>
       <c r="C13">
-        <v>0.3431204274669994</v>
+        <v>0.3912507112924004</v>
       </c>
       <c r="D13">
-        <v>0.08100814637891318</v>
+        <v>0.08805271959013794</v>
       </c>
       <c r="E13">
-        <v>0.01772012182008048</v>
+        <v>0.01771700537464782</v>
       </c>
       <c r="F13">
-        <v>1.42361400642838</v>
+        <v>1.186340859510565</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1144073805051704</v>
+        <v>0.1139423286978172</v>
       </c>
       <c r="I13">
-        <v>0.003126615964667678</v>
+        <v>0.002627815484495422</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.8440241196306957</v>
+        <v>0.6586230449127939</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2479573038166976</v>
       </c>
       <c r="M13">
-        <v>2.121942230426981</v>
+        <v>0.2508826548915337</v>
       </c>
       <c r="N13">
-        <v>0.116808802472022</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.033086253239077</v>
       </c>
       <c r="P13">
-        <v>1.115678106065978</v>
+        <v>0.1239300246214228</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9625106502085607</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.843807256347759</v>
+        <v>1.6597325011208</v>
       </c>
       <c r="C14">
-        <v>0.347350870725819</v>
+        <v>0.3920562232424345</v>
       </c>
       <c r="D14">
-        <v>0.0848251522915433</v>
+        <v>0.09226143892234973</v>
       </c>
       <c r="E14">
-        <v>0.01835263067633441</v>
+        <v>0.01937737315942467</v>
       </c>
       <c r="F14">
-        <v>1.308568127918051</v>
+        <v>1.097043517620378</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1640945974527597</v>
+        <v>0.1635242303036932</v>
       </c>
       <c r="I14">
-        <v>0.003650947605267518</v>
+        <v>0.002980577714472687</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.768593005204437</v>
+        <v>0.605148959767412</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2307191525643155</v>
       </c>
       <c r="M14">
-        <v>2.032376288953856</v>
+        <v>0.2275394802281738</v>
       </c>
       <c r="N14">
-        <v>0.07176772562210942</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.952513572147069</v>
       </c>
       <c r="P14">
-        <v>1.068195215650711</v>
+        <v>0.07746806731263689</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9404657493968536</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.802560905579099</v>
+        <v>1.625047198394924</v>
       </c>
       <c r="C15">
-        <v>0.3462875030619443</v>
+        <v>0.3897429719675074</v>
       </c>
       <c r="D15">
-        <v>0.0857360584365523</v>
+        <v>0.09313742911154321</v>
       </c>
       <c r="E15">
-        <v>0.01895823342440739</v>
+        <v>0.02021213700141988</v>
       </c>
       <c r="F15">
-        <v>1.274853098506526</v>
+        <v>1.070958539877836</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1767644109586968</v>
+        <v>0.1761456895795419</v>
       </c>
       <c r="I15">
-        <v>0.004012559685394379</v>
+        <v>0.003280803529572829</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.7483535611281553</v>
+        <v>0.5911258970539777</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2265543911020771</v>
       </c>
       <c r="M15">
-        <v>1.996536975642272</v>
+        <v>0.2209229560602743</v>
       </c>
       <c r="N15">
-        <v>0.06209719500557043</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.919585874441367</v>
       </c>
       <c r="P15">
-        <v>1.059647588948572</v>
+        <v>0.06746480716288517</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.938281976026806</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.691807030250374</v>
+        <v>1.527355022133946</v>
       </c>
       <c r="C16">
-        <v>0.3225492401512895</v>
+        <v>0.3622818215484926</v>
       </c>
       <c r="D16">
-        <v>0.08379874048738856</v>
+        <v>0.09005194597567368</v>
       </c>
       <c r="E16">
-        <v>0.01759009510996457</v>
+        <v>0.01877877977464681</v>
       </c>
       <c r="F16">
-        <v>1.232864230930048</v>
+        <v>1.04060288332839</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1648595993660678</v>
+        <v>0.1640025235845854</v>
       </c>
       <c r="I16">
-        <v>0.005308968512212076</v>
+        <v>0.004201864858098148</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.7372937498338317</v>
+        <v>0.5873488168318133</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2290164342536123</v>
       </c>
       <c r="M16">
-        <v>1.870346513546053</v>
+        <v>0.2143227014797162</v>
       </c>
       <c r="N16">
-        <v>0.06005261725672284</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.799674298126661</v>
       </c>
       <c r="P16">
-        <v>1.085960166752045</v>
+        <v>0.06546290045920244</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9657052155080734</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.667691409508677</v>
+        <v>1.502452476430221</v>
       </c>
       <c r="C17">
-        <v>0.3022520915692724</v>
+        <v>0.3410090339071132</v>
       </c>
       <c r="D17">
-        <v>0.08020520294611799</v>
+        <v>0.08543350942212413</v>
       </c>
       <c r="E17">
-        <v>0.01546297527575868</v>
+        <v>0.0161098199588583</v>
       </c>
       <c r="F17">
-        <v>1.26099123421335</v>
+        <v>1.064364252422891</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.12755653380448</v>
+        <v>0.1265693805223691</v>
       </c>
       <c r="I17">
-        <v>0.006077058604294194</v>
+        <v>0.004772087674633774</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.7679512411461289</v>
+        <v>0.6123758683899325</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2403213398799338</v>
       </c>
       <c r="M17">
-        <v>1.82106671741721</v>
+        <v>0.2211381427493855</v>
       </c>
       <c r="N17">
-        <v>0.08007112050837861</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.750483810804695</v>
       </c>
       <c r="P17">
-        <v>1.130186031666106</v>
+        <v>0.08625624780801644</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9980904621702251</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.71845925343834</v>
+        <v>1.540065634526542</v>
       </c>
       <c r="C18">
-        <v>0.2820585847416339</v>
+        <v>0.3218906847943401</v>
       </c>
       <c r="D18">
-        <v>0.07536586748027574</v>
+        <v>0.07936600571233754</v>
       </c>
       <c r="E18">
-        <v>0.01621873059607903</v>
+        <v>0.01575571671577403</v>
       </c>
       <c r="F18">
-        <v>1.357966902921021</v>
+        <v>1.14169320384363</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07475382898703486</v>
+        <v>0.07376058294138943</v>
       </c>
       <c r="I18">
-        <v>0.005986031528975033</v>
+        <v>0.004607438363017025</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.8435230570745276</v>
+        <v>0.669332045763035</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2624313603379882</v>
       </c>
       <c r="M18">
-        <v>1.833065338896148</v>
+        <v>0.2414396810731567</v>
       </c>
       <c r="N18">
-        <v>0.1315846682351207</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.757231169666397</v>
       </c>
       <c r="P18">
-        <v>1.204269933871565</v>
+        <v>0.1393679274767976</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.045363620129983</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.820051820631136</v>
+        <v>1.619818647978832</v>
       </c>
       <c r="C19">
-        <v>0.2654530848149079</v>
+        <v>0.3077651146220433</v>
       </c>
       <c r="D19">
-        <v>0.07114903870450462</v>
+        <v>0.07368831275175225</v>
       </c>
       <c r="E19">
-        <v>0.02486780860357651</v>
+        <v>0.02275868336057663</v>
       </c>
       <c r="F19">
-        <v>1.49989328470339</v>
+        <v>1.25296628815056</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02902199678941031</v>
+        <v>0.02815003162784535</v>
       </c>
       <c r="I19">
-        <v>0.005749231736294824</v>
+        <v>0.004521143089722734</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.9491866279448615</v>
+        <v>0.7469216530504497</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2913231085155701</v>
       </c>
       <c r="M19">
-        <v>1.890269790031766</v>
+        <v>0.2706846925130222</v>
       </c>
       <c r="N19">
-        <v>0.2206538305785415</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.805441173379307</v>
       </c>
       <c r="P19">
-        <v>1.303582452419981</v>
+        <v>0.2307222839618817</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.106436190019359</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.075101930352332</v>
+        <v>1.827384408287799</v>
       </c>
       <c r="C20">
-        <v>0.2562099963883071</v>
+        <v>0.3047973792890559</v>
       </c>
       <c r="D20">
-        <v>0.06795681191936254</v>
+        <v>0.0682392561713776</v>
       </c>
       <c r="E20">
-        <v>0.05452013758082686</v>
+        <v>0.04920235297726627</v>
       </c>
       <c r="F20">
-        <v>1.777375163960215</v>
+        <v>1.467237603785819</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001295174949166089</v>
+        <v>0.0008299140042389297</v>
       </c>
       <c r="I20">
-        <v>0.004240480453283624</v>
+        <v>0.003536674194144496</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>1.145868967502437</v>
+        <v>0.8872501059554523</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3394399464871469</v>
       </c>
       <c r="M20">
-        <v>2.079443633290623</v>
+        <v>0.3284835173804126</v>
       </c>
       <c r="N20">
-        <v>0.4104732768116435</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.974638961792834</v>
       </c>
       <c r="P20">
-        <v>1.475516592198261</v>
+        <v>0.4246010118063168</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.205520460547028</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.351335185822393</v>
+        <v>2.063345875177788</v>
       </c>
       <c r="C21">
-        <v>0.290743107372208</v>
+        <v>0.3477711094092228</v>
       </c>
       <c r="D21">
-        <v>0.06891931368313919</v>
+        <v>0.0701656099810144</v>
       </c>
       <c r="E21">
-        <v>0.06469216004763467</v>
+        <v>0.05807002626261237</v>
       </c>
       <c r="F21">
-        <v>1.947386840933845</v>
+        <v>1.593489130968351</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0001775403628290206</v>
+        <v>5.626322837093412E-05</v>
       </c>
       <c r="I21">
-        <v>0.002510245620257479</v>
+        <v>0.002431297537098587</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.234497574804408</v>
+        <v>0.9418766153921965</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3477627761041617</v>
       </c>
       <c r="M21">
-        <v>2.355755176623632</v>
+        <v>0.3636174903481191</v>
       </c>
       <c r="N21">
-        <v>0.4783876687827444</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.232567029003974</v>
       </c>
       <c r="P21">
-        <v>1.486575128003309</v>
+        <v>0.4937265015038861</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.186451883909854</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.528596030493759</v>
+        <v>2.215036894840694</v>
       </c>
       <c r="C22">
-        <v>0.3138672404255942</v>
+        <v>0.3762742559733567</v>
       </c>
       <c r="D22">
-        <v>0.06956934218325195</v>
+        <v>0.07152785344385393</v>
       </c>
       <c r="E22">
-        <v>0.06976404708383654</v>
+        <v>0.06240928170815963</v>
       </c>
       <c r="F22">
-        <v>2.053894346203535</v>
+        <v>1.672733966092778</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.390575772892589E-07</v>
+        <v>1.755185858431929E-05</v>
       </c>
       <c r="I22">
-        <v>0.001627156737025182</v>
+        <v>0.001766626265432336</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.288635880070984</v>
+        <v>0.975033903921009</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.351921562816365</v>
       </c>
       <c r="M22">
-        <v>2.534327489096967</v>
+        <v>0.3864425620704424</v>
       </c>
       <c r="N22">
-        <v>0.5130983447131428</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.399314401127612</v>
       </c>
       <c r="P22">
-        <v>1.489707536914977</v>
+        <v>0.5290102522536557</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.171809061107972</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.438614486857091</v>
+        <v>2.138181373013992</v>
       </c>
       <c r="C23">
-        <v>0.3005601257190449</v>
+        <v>0.3600207754203666</v>
       </c>
       <c r="D23">
-        <v>0.06918901285240509</v>
+        <v>0.07068417964446994</v>
       </c>
       <c r="E23">
-        <v>0.06717392172318526</v>
+        <v>0.06019638879472566</v>
       </c>
       <c r="F23">
-        <v>2.002425655844348</v>
+        <v>1.634986022886707</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.207274370766513E-05</v>
+        <v>3.749461369384477E-06</v>
       </c>
       <c r="I23">
-        <v>0.001725394895229826</v>
+        <v>0.001700424492370622</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.264167079142283</v>
+        <v>0.9608758351081264</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.350963467556177</v>
       </c>
       <c r="M23">
-        <v>2.441013143071018</v>
+        <v>0.3756119855002353</v>
       </c>
       <c r="N23">
-        <v>0.4944146732652683</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.312160592577158</v>
       </c>
       <c r="P23">
-        <v>1.492559556500709</v>
+        <v>0.5100303483517195</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.182719264346758</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.09144415063156</v>
+        <v>1.840672283394838</v>
       </c>
       <c r="C24">
-        <v>0.2528125686729226</v>
+        <v>0.3014378536866502</v>
       </c>
       <c r="D24">
-        <v>0.06773392637504472</v>
+        <v>0.06765102170039228</v>
       </c>
       <c r="E24">
-        <v>0.05730711381451314</v>
+        <v>0.05174302506728168</v>
       </c>
       <c r="F24">
-        <v>1.801341921090213</v>
+        <v>1.486517243085984</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001110240039719379</v>
+        <v>0.0006623102509202283</v>
       </c>
       <c r="I24">
-        <v>0.003677472872864129</v>
+        <v>0.00289056949585742</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>1.165225530561898</v>
+        <v>0.901980671453245</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3449689797777182</v>
       </c>
       <c r="M24">
-        <v>2.086587269175737</v>
+        <v>0.3339892758450773</v>
       </c>
       <c r="N24">
-        <v>0.4242892368669118</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.980637575672176</v>
       </c>
       <c r="P24">
-        <v>1.496910540758805</v>
+        <v>0.4387073730980688</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.219888237984939</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.719135924232688</v>
+        <v>1.520055247074879</v>
       </c>
       <c r="C25">
-        <v>0.2033504171308493</v>
+        <v>0.2407144177708176</v>
       </c>
       <c r="D25">
-        <v>0.06600352979392099</v>
+        <v>0.06430023766557014</v>
       </c>
       <c r="E25">
-        <v>0.04690950577686515</v>
+        <v>0.04279478195600284</v>
       </c>
       <c r="F25">
-        <v>1.589748125878998</v>
+        <v>1.330195570661559</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.00391080471573646</v>
+        <v>0.002748428047554263</v>
       </c>
       <c r="I25">
-        <v>0.007881413081980426</v>
+        <v>0.005833976923005579</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.060456739941522</v>
+        <v>0.8394281161198691</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3377008693584358</v>
       </c>
       <c r="M25">
-        <v>1.708508560408205</v>
+        <v>0.2927193656747633</v>
       </c>
       <c r="N25">
-        <v>0.3493247742624135</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.625905470668329</v>
       </c>
       <c r="P25">
-        <v>1.503547093170667</v>
+        <v>0.3623430993720973</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.261801173148001</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
